--- a/TestCase/TestCaseLSY.xlsx
+++ b/TestCase/TestCaseLSY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sodamsodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2290ACB5-51C6-4223-83C1-14C2D346D033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FD7664-57DE-49F5-8191-578F8940E9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="270">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -167,10 +167,6 @@
   </si>
   <si>
     <t>매장 내 발주 신청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>매장 내 결제 및 매출 관리</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -585,18 +581,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>매장에서 상품 결제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO Payments (store_id, total_amount, payment_method) VALUES (1, 50000, '카드');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 정보가 정상 등록됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TC-EM-003</t>
   </si>
   <si>
@@ -621,23 +605,7 @@
     <t>TC-EM-010</t>
   </si>
   <si>
-    <t>결제 금액을 음수로 입력</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	INSERT INTO Payments (store_id, total_amount, payment_method) VALUES (1, -10000, '현금');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"결제 금액은 음수가 될 수 없습니다." 오류 발생</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>특정 매장의 일별 매출 보고서 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	SELECT store_id, SUM(total_amount) AS total_sales FROM Payments WHERE store_id = 1 AND created_at BETWEEN '2024-03-01' AND '2024-03-10' GROUP BY store_id;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1013,6 +981,132 @@
   </si>
   <si>
     <t>Invalid column type 오류 발생</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE employees
+ADD CONSTRAINT chk_positive CHECK (salary &gt;= 0);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000003 row(s) affected Records: 1000003  Duplicates: 0  Warnings: 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약 사항 추가 시 많은 시간 소요</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.468 sec</t>
+  </si>
+  <si>
+    <t>TC-EM-012</t>
+  </si>
+  <si>
+    <t>UPDATE Employees SET store_id = 999 WHERE employee_id = 5;</t>
+  </si>
+  <si>
+    <t>기존 직원이 새로운 매장으로 발령됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 배치 변경</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 업무 변경</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못된 직원 발령</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못된 업무 배치</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원이 새로운 업무 배치됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>존재하지 않는 매장으로 발령</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원에게 지원되지 않는 역할 지정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원의 매장 발령이 변경됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원의 역할이 변경됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"매장이 존재하지 않습니다." 오류 발생</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"물류센터 직원은 배송 기사가 될 수 없습니다." 오류 발생</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE Employees SET role = '매장 재고 담당' WHERE employee_id = 367;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE Employees SET store_id = 2 WHERE employee_id = 3345;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE Employees SET role = '배송 기사' WHERE employee_id = 10 AND warehouse_id IS NOT NULL;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT store_id, SUM(amount) AS total_sales FROM Offline_Payment INNER JOIN Offline_Order ON Offline_Payment.order_id = Offline_Order.order_id WHERE Offline_Order.pay_method = '카드 결제' AND Offline_Payment.paid_at BETWEEN '2024-03-01' AND '2024-03-10' GROUP BY store_id;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-EM-013</t>
+  </si>
+  <si>
+    <t>0.019 sec</t>
+  </si>
+  <si>
+    <t>TC-EM-014</t>
+  </si>
+  <si>
+    <t>TC-EM-015</t>
+  </si>
+  <si>
+    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails (`sodam`.`employees`, CONSTRAINT `FK_Employees_Stores` FOREIGN KEY (`store_id`) REFERENCES `stores` (`store_id`))</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE Employees SET role = '배송 기사' WHERE employee_id = 10 AND store_id IS NOT NULL; DELIMITER $$
+CREATE TRIGGER trg_validate_employee_role_update
+BEFORE UPDATE ON Employees
+FOR EACH ROW
+BEGIN
+    -- 매장 직원의 역할에서 물류 직원으로 변경 시 store_id가 NULL이 아니면 예외 발생
+    IF NEW.role IN ('물류 직원', '물류 재고 담당', '물류 관리자') AND OLD.store_id IS NOT NULL THEN
+        SIGNAL SQLSTATE '45000'
+        SET MESSAGE_TEXT = '물류센터 직원은 매장에서 근무할 수 없습니다.';
+    END IF;
+    IF NEW.role IN ('배송 기사') AND OLD.store_id IS NOT NULL THEN
+        SIGNAL SQLSTATE '45000'
+        SET MESSAGE_TEXT = '물류센터 직원은 매장에서 근무할 수 없습니다.';
+    END IF;    
+    -- 물류 직원의 역할에서 매장 직원으로 변경 시 warehouse_id가 NULL이 아니면 예외 발생
+    IF NEW.role IN ('매장 직원', '매장 캐셔', '매장 재고 담당', '매장 관리자') AND OLD.warehouse_id IS NOT NULL THEN
+        SIGNAL SQLSTATE '45000'
+        SET MESSAGE_TEXT = '매장 직원은 물류센터에서 근무할 수 없습니다.';
+    END IF;
+END $$
+DELIMITER ;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1347,13 +1441,13 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
@@ -1689,11 +1783,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1711,10 +1805,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" s="5" t="s">
@@ -1741,13 +1835,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1755,7 +1849,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -1763,7 +1857,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -1777,10 +1871,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>0</v>
@@ -1789,13 +1883,13 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>1</v>
@@ -1809,19 +1903,19 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" s="1"/>
@@ -1829,23 +1923,23 @@
     </row>
     <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="1"/>
@@ -1853,23 +1947,23 @@
     </row>
     <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H10" s="2"/>
       <c r="J10" s="1"/>
@@ -1877,23 +1971,23 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H11" s="2"/>
       <c r="J11" s="1"/>
@@ -1901,23 +1995,23 @@
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H12" s="2"/>
       <c r="J12" s="1"/>
@@ -1925,23 +2019,23 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H13" s="2"/>
       <c r="J13" s="1"/>
@@ -1949,23 +2043,23 @@
     </row>
     <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H14" s="2"/>
       <c r="J14" s="1"/>
@@ -1973,23 +2067,23 @@
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H15" s="2"/>
       <c r="J15" s="1"/>
@@ -1997,23 +2091,23 @@
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H16" s="2"/>
       <c r="J16" s="1"/>
@@ -2021,23 +2115,23 @@
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H17" s="2"/>
       <c r="J17" s="1"/>
@@ -2045,23 +2139,23 @@
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H18" s="2"/>
       <c r="J18" s="1"/>
@@ -2069,25 +2163,25 @@
     </row>
     <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H19" s="1"/>
       <c r="J19" s="1"/>
@@ -2101,28 +2195,28 @@
         <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -2134,28 +2228,28 @@
         <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I21" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>59</v>
-      </c>
       <c r="J21" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="K21" s="1"/>
     </row>
@@ -2167,28 +2261,28 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>59</v>
-      </c>
       <c r="J22" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="K22" s="1"/>
     </row>
@@ -2200,28 +2294,28 @@
         <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="G23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>59</v>
-      </c>
       <c r="J23" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="K23" s="1"/>
     </row>
@@ -2233,28 +2327,28 @@
         <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>59</v>
-      </c>
       <c r="J24" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -2266,19 +2360,19 @@
         <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2289,19 +2383,19 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2312,575 +2406,601 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>125</v>
-      </c>
       <c r="G37" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>126</v>
+        <v>261</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>131</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>127</v>
+        <v>253</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>128</v>
+        <v>260</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>134</v>
+        <v>247</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>136</v>
+        <v>255</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>58</v>
+        <v>126</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E53" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>174</v>
+        <v>44</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
@@ -2896,6 +3016,12 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:N7" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}"/>
@@ -2963,34 +3089,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -2998,31 +3124,31 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3030,31 +3156,31 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3087,212 +3213,212 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E5" s="18">
         <v>45727.906504629631</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E6" s="18">
         <v>45727.901932870373</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>247</v>
+      <c r="A7" s="20" t="s">
+        <v>239</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E7" s="18">
         <v>45727.907893518517</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>248</v>
+      <c r="A8" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E8" s="18">
         <v>45727.910671296297</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -3314,17 +3440,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C4A51-9690-43BE-9F3A-73533E711DB8}">
-  <dimension ref="A2:J13"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
+    <col min="3" max="3" width="45.375" customWidth="1"/>
     <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
@@ -3336,290 +3462,407 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E3" s="18">
         <v>45727.870196759257</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>229</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>125</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E4" s="18">
         <v>45727.879166666666</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E5" s="18">
         <v>45727.884097222224</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="G5" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>126</v>
+        <v>261</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E6" s="18">
-        <v>45727.881423611114</v>
+        <v>45728.837905092594</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>227</v>
+        <v>256</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>253</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>128</v>
+        <v>260</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E7" s="18">
-        <v>45727.882337962961</v>
+        <v>45728.839467592596</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>134</v>
+        <v>247</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E8" s="18">
-        <v>45727.883425925924</v>
+        <v>45728.839953703704</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>136</v>
+        <v>255</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>137</v>
+        <v>269</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E9" s="18">
-        <v>45727.884097222224</v>
+        <v>45728.837905092594</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E10" s="18">
-        <v>45727.884097222224</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>143</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="18">
+        <v>45727.881423611114</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="18">
+        <v>45727.882337962961</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="18">
+        <v>45727.883425925924</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="18">
+        <v>45727.884097222224</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="18">
+        <v>45727.884097222224</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E11" s="18">
+      <c r="C17" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="18">
         <v>45728.884097222224</v>
       </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E12" s="18">
-        <v>45729.884097222224</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="18">
-        <v>45730.884097222224</v>
-      </c>
-      <c r="I13" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -3651,34 +3894,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3686,31 +3929,31 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3718,36 +3961,36 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3780,34 +4023,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3815,31 +4058,31 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3847,36 +4090,36 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/TestCaseLSY.xlsx
+++ b/TestCase/TestCaseLSY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sodamsodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FD7664-57DE-49F5-8191-578F8940E9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2E3E1C-FC7D-4B5B-928A-9B1B69DD911C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="270">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1073,9 +1073,6 @@
     <t>TC-EM-013</t>
   </si>
   <si>
-    <t>0.019 sec</t>
-  </si>
-  <si>
     <t>TC-EM-014</t>
   </si>
   <si>
@@ -1086,7 +1083,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>UPDATE Employees SET role = '배송 기사' WHERE employee_id = 10 AND store_id IS NOT NULL; DELIMITER $$
+    <t>UPDATE Employees SET role = '배송 기사' WHERE employee_id = 15 AND store_id IS NOT NULL; DELIMITER $$
 CREATE TRIGGER trg_validate_employee_role_update
 BEFORE UPDATE ON Employees
 FOR EACH ROW
@@ -1107,6 +1104,10 @@
     END IF;
 END $$
 DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Code: 1644. 물류센터 직원은 매장에서 근무할 수 없습니다.</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1786,8 +1787,8 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <pane ySplit="7" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3440,10 +3441,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C4A51-9690-43BE-9F3A-73533E711DB8}">
-  <dimension ref="A2:J17"/>
+  <dimension ref="A2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3670,7 +3671,7 @@
         <v>258</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
@@ -3681,19 +3682,25 @@
         <v>255</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E9" s="18">
-        <v>45728.837905092594</v>
+        <v>45729.785509259258</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>265</v>
+        <v>227</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>259</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3822,9 +3829,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>146</v>
@@ -3843,9 +3850,9 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>148</v>
@@ -3863,6 +3870,15 @@
         <v>150</v>
       </c>
       <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="18"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/TestCase/TestCaseLSY.xlsx
+++ b/TestCase/TestCaseLSY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sodamsodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2E3E1C-FC7D-4B5B-928A-9B1B69DD911C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D45296-E0E1-44DC-8AFF-B7E4F00CBBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
@@ -17,8 +17,9 @@
     <sheet name="Customer" sheetId="16" r:id="rId2"/>
     <sheet name="Product" sheetId="20" r:id="rId3"/>
     <sheet name="Store" sheetId="21" r:id="rId4"/>
-    <sheet name="Payment" sheetId="22" r:id="rId5"/>
-    <sheet name="Delivery" sheetId="23" r:id="rId6"/>
+    <sheet name="Store_Link" sheetId="24" r:id="rId5"/>
+    <sheet name="Payment" sheetId="22" r:id="rId6"/>
+    <sheet name="Delivery" sheetId="23" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testcase!$A$7:$N$7</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="286">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1083,31 +1084,1236 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>UPDATE Employees SET role = '배송 기사' WHERE employee_id = 15 AND store_id IS NOT NULL; DELIMITER $$
+    <t>Error Code: 1644. 물류센터 직원은 매장에서 근무할 수 없습니다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-EM-016</t>
+  </si>
+  <si>
+    <t>매장 발주 요청 시 물류센터 발주</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Procedure</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIGGER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성날짜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세내용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로시저/트리거 이름</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로시저/트리거 ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-EM-PT-001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE Employees SET role = '배송 기사' WHERE employee_id = 15 AND store_id IS NOT NULL;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DELIMITER //
 CREATE TRIGGER trg_validate_employee_role_update
 BEFORE UPDATE ON Employees
 FOR EACH ROW
 BEGIN
-    -- 매장 직원의 역할에서 물류 직원으로 변경 시 store_id가 NULL이 아니면 예외 발생
-    IF NEW.role IN ('물류 직원', '물류 재고 담당', '물류 관리자') AND OLD.store_id IS NOT NULL THEN
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>역할에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> store_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아니면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예외</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발생</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    IF NEW.role IN ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>담당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>') AND OLD.store_id IS NOT NULL THEN
         SIGNAL SQLSTATE '45000'
-        SET MESSAGE_TEXT = '물류센터 직원은 매장에서 근무할 수 없습니다.';
+        SET MESSAGE_TEXT = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물류센터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>근무할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.';
     END IF;
-    IF NEW.role IN ('배송 기사') AND OLD.store_id IS NOT NULL THEN
+    IF NEW.role IN ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>') AND OLD.store_id IS NOT NULL THEN
         SIGNAL SQLSTATE '45000'
-        SET MESSAGE_TEXT = '물류센터 직원은 매장에서 근무할 수 없습니다.';
+        SET MESSAGE_TEXT = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물류센터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>근무할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.';
     END IF;    
-    -- 물류 직원의 역할에서 매장 직원으로 변경 시 warehouse_id가 NULL이 아니면 예외 발생
-    IF NEW.role IN ('매장 직원', '매장 캐셔', '매장 재고 담당', '매장 관리자') AND OLD.warehouse_id IS NOT NULL THEN
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>역할에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> warehouse_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아니면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예외</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발생</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    IF NEW.role IN ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐셔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>담당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>') AND OLD.warehouse_id IS NOT NULL THEN
         SIGNAL SQLSTATE '45000'
-        SET MESSAGE_TEXT = '매장 직원은 물류센터에서 근무할 수 없습니다.';
+        SET MESSAGE_TEXT = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물류센터에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>근무할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.';
     END IF;
-END $$
+END //
 DELIMITER ;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error Code: 1644. 물류센터 직원은 매장에서 근무할 수 없습니다.</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>trg_validate_employee_role_update</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 링크</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장 직원과 물류센터 직원의 역할이 다르기 때문에 근무하는 곳에 맞는 역할을 부여하기 위해</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1115,7 +2321,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1234,8 +2443,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1322,6 +2553,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1343,7 +2580,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1380,8 +2617,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1454,13 +2694,35 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="20% - 강조색1" xfId="6" builtinId="30"/>
     <cellStyle name="20% - 강조색2" xfId="7" builtinId="34"/>
     <cellStyle name="20% - 강조색3" xfId="8" builtinId="38"/>
     <cellStyle name="20% - 강조색4" xfId="9" builtinId="42"/>
     <cellStyle name="20% - 강조색6" xfId="10" builtinId="50"/>
+    <cellStyle name="40% - 강조색5" xfId="12" builtinId="47"/>
     <cellStyle name="강조색1" xfId="5" builtinId="29"/>
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="보통" xfId="3" builtinId="28"/>
@@ -3195,7 +4457,7 @@
   <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3441,10 +4703,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C4A51-9690-43BE-9F3A-73533E711DB8}">
-  <dimension ref="A2:J18"/>
+  <dimension ref="A2:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3452,16 +4714,17 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="45.375" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="32.875" customWidth="1"/>
-    <col min="9" max="9" width="36.75" customWidth="1"/>
-    <col min="10" max="10" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="32.875" customWidth="1"/>
+    <col min="10" max="10" width="36.75" customWidth="1"/>
+    <col min="11" max="11" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>151</v>
       </c>
@@ -3471,29 +4734,32 @@
       <c r="C2" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>118</v>
       </c>
@@ -3503,27 +4769,28 @@
       <c r="C3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="18">
+      <c r="F3" s="18">
         <v>45727.870196759257</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>117</v>
       </c>
@@ -3533,29 +4800,30 @@
       <c r="C4" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="18">
+      <c r="F4" s="18">
         <v>45727.879166666666</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="K4" s="17" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>138</v>
       </c>
@@ -3565,29 +4833,30 @@
       <c r="C5" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E5" s="18">
+      <c r="F5" s="18">
         <v>45727.884097222224</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>139</v>
       </c>
@@ -3597,26 +4866,27 @@
       <c r="C6" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E6" s="18">
+      <c r="F6" s="18">
         <v>45728.837905092594</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="H6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>140</v>
       </c>
@@ -3626,26 +4896,27 @@
       <c r="C7" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="18">
+      <c r="F7" s="18">
         <v>45728.839467592596</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>141</v>
       </c>
@@ -3655,26 +4926,27 @@
       <c r="C8" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E8" s="18">
+      <c r="F8" s="18">
         <v>45728.839953703704</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="H8" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>142</v>
       </c>
@@ -3682,38 +4954,41 @@
         <v>255</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="18">
+        <v>45729.785509259258</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="18">
-        <v>45729.785509259258</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>145</v>
       </c>
@@ -3723,26 +4998,27 @@
       <c r="C12" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="18">
+      <c r="F12" s="18">
         <v>45727.881423611114</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="H12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>233</v>
       </c>
@@ -3752,26 +5028,27 @@
       <c r="C13" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E13" s="18">
+      <c r="F13" s="18">
         <v>45727.882337962961</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="H13" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>246</v>
       </c>
@@ -3781,26 +5058,27 @@
       <c r="C14" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E14" s="18">
+      <c r="F14" s="18">
         <v>45727.883425925924</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>264</v>
       </c>
@@ -3810,26 +5088,27 @@
       <c r="C15" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="18">
+      <c r="F15" s="18">
         <v>45727.884097222224</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="H15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>265</v>
       </c>
@@ -3839,18 +5118,19 @@
       <c r="C16" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E16" s="18">
+      <c r="F16" s="18">
         <v>45727.884097222224</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>266</v>
       </c>
@@ -3860,33 +5140,128 @@
       <c r="C17" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E17" s="18">
+      <c r="F17" s="18">
         <v>45728.884097222224</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="18"/>
-      <c r="H18" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F18" s="18">
+        <v>45729.884097222224</v>
+      </c>
       <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D9" location="Store_Link!A3" display="TRIGGER" xr:uid="{7B18410A-0236-4DA7-8282-B91D7737CB18}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8D7F36-D734-45DA-B4CE-D9CDAB3C3E1C}">
+  <dimension ref="A2:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="5" max="5" width="101.875" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="23.125" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="402" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" s="24">
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" location="Store!A9" display="TC-EM-PT-001" xr:uid="{551B4970-8E7D-499C-A864-E7C7A59A9C67}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444E93D6-ED11-4590-A7D7-036BA4610650}">
   <dimension ref="A2:J5"/>
   <sheetViews>
@@ -4015,7 +5390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50FCE08-A9A6-4483-84DE-98EAA6AAEB1B}">
   <dimension ref="A2:J5"/>
   <sheetViews>

--- a/TestCase/TestCaseLSY.xlsx
+++ b/TestCase/TestCaseLSY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sodamsodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D45296-E0E1-44DC-8AFF-B7E4F00CBBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA97590F-864F-45E0-A386-6DC15183A6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="367">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1067,19 +1067,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT store_id, SUM(amount) AS total_sales FROM Offline_Payment INNER JOIN Offline_Order ON Offline_Payment.order_id = Offline_Order.order_id WHERE Offline_Order.pay_method = '카드 결제' AND Offline_Payment.paid_at BETWEEN '2024-03-01' AND '2024-03-10' GROUP BY store_id;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-EM-013</t>
-  </si>
-  <si>
-    <t>TC-EM-014</t>
-  </si>
-  <si>
-    <t>TC-EM-015</t>
-  </si>
-  <si>
     <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails (`sodam`.`employees`, CONSTRAINT `FK_Employees_Stores` FOREIGN KEY (`store_id`) REFERENCES `stores` (`store_id`))</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1088,17 +1075,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>TC-EM-016</t>
-  </si>
-  <si>
-    <t>매장 발주 요청 시 물류센터 발주</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Procedure</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TRIGGER</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1128,10 +1104,6 @@
   </si>
   <si>
     <t>프로시저/트리거 ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-EM-PT-001</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2316,15 +2288,3025 @@
     <t>매장 직원과 물류센터 직원의 역할이 다르기 때문에 근무하는 곳에 맞는 역할을 부여하기 위해</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>매장에서 발주 요청 시 물류센터 알림</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp_request_store_order</t>
+  </si>
+  <si>
+    <t>매장에서 물류센터로 발주 요청 시 자동으로 물류센터에 insert 되고 알림이 갈 수 있게</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DELIMITER //
+CREATE PROCEDURE sp_request_store_order(
+    IN store_id BIGINT, 
+    IN product_id BIGINT, 
+    IN request_quantity INT
+)
+BEGIN
+    DECLARE available_stock INT;
+    DECLARE max_request INT;
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물류센터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재고량</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    SELECT quantity INTO available_stock
+    FROM Warehouse_Inventory
+    WHERE product_id = product_id;
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수량</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물류센터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재고의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 10%)
+    SET max_request = available_stock / 10;
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수량이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제한을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과하는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    IF request_quantity &gt; max_request THEN
+        SIGNAL SQLSTATE '45000'
+        SET MESSAGE_TEXT = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수량이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물류센터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재고의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.';
+    ELSE
+        -- Store_Order_Requests </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삽입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        INSERT INTO Store_Order_Requests (store_id, status, created_at)
+        VALUES (store_id, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">', NOW());
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삽입된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> request_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가져오기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        SET @request_id = LAST_INSERT_ID();
+        -- Store_Order_Details </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삽입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        INSERT INTO Store_Order_Details (request_id, product_id, quantity, created_at)
+        VALUES (@request_id, product_id, request_quantity, NOW());
+        -- Store_Order_Logs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        INSERT INTO Store_Order_Logs (request_id, status, changed_at)
+        VALUES (@request_id, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">', NOW());
+        -- Warehouse_Orders_Requests </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삽입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+        INSERT INTO Warehouse_Orders_Requests (warehouse_id, type, source, status, created_at)
+        VALUES (1, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장발주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">', NOW());
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삽입된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> warehouse request_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가져오기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        SET @warehouse_request_id = LAST_INSERT_ID();
+        -- Warehouse_Orders_Log </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        INSERT INTO Warehouse_Orders_Log (request_id, status, changed_at)
+        VALUES (@warehouse_request_id, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">', NOW());
+        -- Warehouse_Orders_Details </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        INSERT INTO Warehouse_Orders_Details (request_id, product_id, quantity, created_at)
+        VALUES (@warehouse_request_id, product_id, request_quantity, NOW());
+    END IF;
+END //
+DELIMITER ;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL sp_request_store_order(2, 5, 15);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>trg_warehouse_order_status_update</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장의 발주 요청을 물류센터가 승인 후 상태값이 바뀔 때 자동으로 매장에서도 바뀔 수 있게</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DELIMITER //
+-- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트리거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: Warehouse_Orders_Requests </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(Store_Order_Requests) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동기화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+CREATE TRIGGER trg_warehouse_order_status_update
+AFTER UPDATE ON Warehouse_Orders_Requests
+FOR EACH ROW
+BEGIN
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (Warehouse_Orders_Log)
+    INSERT INTO Warehouse_Orders_Log (request_id, status, changed_at)
+    VALUES (NEW.request_id, NEW.status, NOW());
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물류센터에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>승인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>준비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    IF NEW.status IN ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>승인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>준비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">') THEN
+        UPDATE Store_Order_Requests
+        SET status = NEW.status
+        WHERE request_id = NEW.request_id;
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        INSERT INTO Store_Order_Logs (request_id, status, changed_at)
+        VALUES (NEW.request_id, NEW.status, NOW());
+    END IF;
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물류센터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    IF NEW.status = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>' THEN
+        UPDATE Warehouse_Inventory wi
+        JOIN Store_Order_Details sod ON wi.product_id = sod.product_id
+        SET wi.quantity = wi.quantity - sod.quantity
+        WHERE sod.request_id = NEW.request_id;
+    END IF;
+END //</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>물류센터에서 매장 발주 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.031 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장과 물류센터 두 곳에서 발주 요청</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>물류센터에서 변경하는 내용이 매장에서도 적용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 row(s) affected Rows matched: 1  Changed: 0  Warnings: 0</t>
+  </si>
+  <si>
+    <r>
+      <t>UPDATE Warehouse_Orders_Requests
+SET status = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>승인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'
+WHERE request_id = 123;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장에서 발주 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE Store_Order_Requests
+SET status = '입고 완료'
+WHERE request_id = 123;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">delimiter //
+-- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 트리거: Store_Order_Requests 상태 변경 → 물류센터(Warehouse_Orders_Requests) 동기화
+CREATE TRIGGER trg_store_order_status_update
+AFTER UPDATE ON Store_Order_Requests
+FOR EACH ROW
+BEGIN
+    -- 상태 변경 로그 기록 (Store_Order_Logs)
+    INSERT INTO Store_Order_Logs (request_id, status, changed_at)
+    VALUES (NEW.request_id, NEW.status, NOW());
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 매장에서 상태 변경 가능한 값: 입고 준비 중, 입고 완료
+    IF NEW.status IN ('입고 준비 중', '입고 완료') THEN
+        UPDATE Warehouse_Orders_Requests
+        SET status = NEW.status
+        WHERE request_id = NEW.request_id;
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 물류센터 발주 상태 변경 로그 기록
+        INSERT INTO Warehouse_Orders_Log (request_id, status, changed_at)
+        VALUES (NEW.request_id, NEW.status, NOW());
+    END IF;
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 입고 완료 시 매장 재고 증가
+    IF NEW.status = '입고 완료' THEN
+        UPDATE Store_Inventory si
+        JOIN Store_Order_Details sod ON si.store_id = NEW.store_id AND si.product_id = sod.product_id
+        SET si.quantity = si.quantity + sod.quantity
+        WHERE sod.request_id = NEW.request_id;
+    END IF;
+END //
+delimiter ;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>trg_store_order_status_update</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장에서 발주 기록 관리 시 물류센터에도 반영</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장에서 변경하는 내용이 물류센터에서도 적용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 row(s) affected Rows matched: 1  Changed: 0  Warnings: 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주 취소 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE Warehouse_Orders_Requests
+SET status = '취소'
+WHERE request_id = 123;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주 취소 시 모든 곳에 적용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">delimiter //
+-- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 트리거: Store_Order_Requests 또는 Warehouse_Orders_Requests에서 상태값이 '취소'로 변경되었을 때 동기화
+CREATE TRIGGER trg_order_cancel_sync
+AFTER UPDATE ON Store_Order_Requests
+FOR EACH ROW
+BEGIN
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 취소 처리: 언제든 가능 (입고 완료 이후는 매장에서만 가능)
+    IF NEW.status = '취소' THEN
+        UPDATE Warehouse_Orders_Requests
+        SET status = '취소'
+        WHERE request_id = NEW.request_id;
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 취소 로그 기록
+        INSERT INTO Store_Order_Logs (request_id, status, changed_at)
+        VALUES (NEW.request_id, '취소', NOW());
+        INSERT INTO Warehouse_Orders_Log (request_id, status, changed_at)
+        VALUES (NEW.request_id, '취소', NOW());
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 입고 전에 취소된 경우 → 물류센터 재고 복구
+        IF OLD.status IN ('출고 완료') THEN
+            UPDATE Warehouse_Inventory wi
+            JOIN Store_Order_Details sod ON wi.product_id = sod.product_id
+            SET wi.quantity = wi.quantity + sod.quantity
+            WHERE sod.request_id = NEW.request_id;
+        END IF;
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 입고 후에 취소된 경우 → 매장 재고 차감, 물류센터 재고 복구
+        IF OLD.status = '입고 완료' THEN
+            UPDATE Store_Inventory si
+            JOIN Store_Order_Details sod ON si.store_id = NEW.store_id AND si.product_id = sod.product_id
+            SET si.quantity = si.quantity - sod.quantity
+            WHERE sod.request_id = NEW.request_id;
+            UPDATE Warehouse_Inventory wi
+            JOIN Store_Order_Details sod ON wi.product_id = sod.product_id
+            SET wi.quantity = wi.quantity + sod.quantity
+            WHERE sod.request_id = NEW.request_id;
+        END IF;
+    END IF;
+END //
+delimiter ;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>trg_order_cancel_sync</t>
+  </si>
+  <si>
+    <t>매장이든 물류센터든 발주 취소 시 상대 쪽에서도 보일 수 있게</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 row(s) affected Rows matched: 1  Changed: 1  Warnings: 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DELIMITER //
+CREATE TRIGGER trg_online_payment_status_update
+AFTER UPDATE ON online_payment
+FOR EACH ROW
+BEGIN
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 결제 완료 시 (DONE) → 창고 재고 차감
+    IF NEW.status = 'DONE' THEN
+        UPDATE Warehouse_Inventory wi
+        JOIN online_cart_product ocp ON wi.product_id = ocp.product_id
+        JOIN online_order oo ON ocp.online_cart_id = oo.online_cart_id
+        SET wi.quantity = wi.quantity - ocp.quantity
+        WHERE oo.order_id = NEW.order_id;
+    END IF;
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 결제 취소 시 (CANCELED) → 창고 재고 복구
+    IF NEW.status = 'CANCELED' THEN
+        UPDATE Warehouse_Inventory wi
+        JOIN online_cart_product ocp ON wi.product_id = ocp.product_id
+        JOIN online_order oo ON ocp.online_cart_id = oo.online_cart_id
+        SET wi.quantity = wi.quantity + ocp.quantity
+        WHERE oo.order_id = NEW.order_id;
+    END IF;
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 부분 취소 시 (PARTIAL_CANCELED) → 취소된 수량만큼 창고 재고 복구
+    IF NEW.status = 'PARTIAL_CANCELED' THEN
+        -- 취소된 수량만큼 환불하는 로직이 필요하면 여기에 추가
+        UPDATE Warehouse_Inventory wi
+        JOIN online_cart_product ocp ON wi.product_id = ocp.product_id
+        JOIN online_order oo ON ocp.online_cart_id = oo.online_cart_id
+        SET wi.quantity = wi.quantity + (NEW.total_amount - NEW.balance_amount) / ocp.price
+        WHERE oo.order_id = NEW.order_id;
+    END IF;
+END //
+DELIMITER ;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>trg_online_payment_status_update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">온라인 결제 시 물류센터 재고 차감 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 취소 시 물류센터 재고 복구</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE online_payment 
+SET status = 'CANCELED'
+WHERE online_payment_id = 123;
+-- 주문이 취소됨 (창고 재고 복구)
+UPDATE online_payment 
+SET status = 'PARTIAL_CANCELED', balance_amount = balance_amount - 5000
+WHERE online_payment_id = 123;
+-- 부분 취소됨 (취소된 수량만큼 창고 재고 복구)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE online_payment 
+SET status = 'DONE'
+WHERE online_payment_id = 123;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DELIMITER //
+CREATE TRIGGER trg_offline_payment_status_update
+AFTER UPDATE ON Offline_Payment
+FOR EACH ROW
+BEGIN
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 결제 완료 시 (paid) → 매장 재고 차감
+    IF NEW.status = 'paid' THEN
+        UPDATE Store_Inventory si
+        JOIN Offline_Cart_Product ocp ON si.inventory_id = ocp.inventory_id
+        JOIN Offline_Cart oc ON ocp.offline_cart_id = oc.offline_cart_id
+        JOIN Offline_Order oo ON oc.offline_cart_id = oo.offline_cart_id
+        SET si.quantity = si.quantity - ocp.quantity
+        WHERE oo.order_id = NEW.order_id;
+    END IF;
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 결제 취소 시 (cancelled) → 매장 재고 복구
+    IF NEW.status = 'cancelled' THEN
+        UPDATE Store_Inventory si
+        JOIN Offline_Cart_Product ocp ON si.inventory_id = ocp.inventory_id
+        JOIN Offline_Cart oc ON ocp.offline_cart_id = oc.offline_cart_id
+        JOIN Offline_Order oo ON oc.offline_cart_id = oo.offline_cart_id
+        SET si.quantity = si.quantity + ocp.quantity
+        WHERE oo.order_id = NEW.order_id;
+    END IF;
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 부분 취소 시 (partialCancelled) → 취소된 금액만큼 매장 재고 복구
+    IF NEW.status = 'partialCancelled' THEN
+        UPDATE Store_Inventory si
+        JOIN Offline_Cart_Product ocp ON si.inventory_id = ocp.inventory_id
+        JOIN Offline_Cart oc ON ocp.offline_cart_id = oc.offline_cart_id
+        JOIN Offline_Order oo ON oc.offline_cart_id = oo.offline_cart_id
+        SET si.quantity = si.quantity + (NEW.amount - NEW.balance_amt) / ocp.price
+        WHERE oo.order_id = NEW.order_id;
+    END IF;
+END //
+DELIMITER ;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인 결제 완료, 취소(반품, 교환)할 때 물류센터 재고 변화</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프라인 결제, 취소(반품, 교환)할 때 매장 재고 변환</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>trg_offline_payment_status_update</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프라인 결제 시 매장 재고 차감</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">온라인 결제 시 물류센터 재고 관리(결제) </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">온라인 결제 시 물류센터 재고 관리(반품, 교환) </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE Offline_Payment 
+SET status = 'paid'
+WHERE offline_payment_id = 456;
+-- 결제가 완료됨 (매장 재고 차감)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE Offline_Payment 
+SET status = 'cancelled'
+WHERE offline_payment_id = 456;
+-- 결제가 취소됨 (매장 재고 복구)
+UPDATE Offline_Payment 
+SET status = 'partialCancelled', balance_amt = balance_amt - 3000
+WHERE offline_payment_id = 456;
+-- 부분 취소됨 (취소된 수량만큼 매장 재고 복구)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프라인 결제 시 매장 재고 관리(결제)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프라인 결제 시 매장 재고 관리(반품, 교환)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 취소 시 매장 재고 복구</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.016 sec, 0.015 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-ES-001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-ES-002</t>
+  </si>
+  <si>
+    <t>TC-ES-003</t>
+  </si>
+  <si>
+    <t>TC-ES-004</t>
+  </si>
+  <si>
+    <t>TC-ES-005</t>
+  </si>
+  <si>
+    <t>TC-ES-006</t>
+  </si>
+  <si>
+    <t>TC-ES-007</t>
+  </si>
+  <si>
+    <t>TC-ES-008</t>
+  </si>
+  <si>
+    <t>TC-ES-009</t>
+  </si>
+  <si>
+    <t>TC-ES-010</t>
+  </si>
+  <si>
+    <t>TC-ES-011</t>
+  </si>
+  <si>
+    <t>TC-ES-012</t>
+  </si>
+  <si>
+    <t>TC-ES-013</t>
+  </si>
+  <si>
+    <t>TC-ES-014</t>
+  </si>
+  <si>
+    <t>TC-ES-015</t>
+  </si>
+  <si>
+    <t>TC-ES-016</t>
+  </si>
+  <si>
+    <t>TC-ES-017</t>
+  </si>
+  <si>
+    <t>TC-ES-018</t>
+  </si>
+  <si>
+    <t>TC-ES-019</t>
+  </si>
+  <si>
+    <t>TC-ES-020</t>
+  </si>
+  <si>
+    <t>TC-ES-021</t>
+  </si>
+  <si>
+    <t>TC-ES-PT-001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-ES-PT-002</t>
+  </si>
+  <si>
+    <t>TC-ES-PT-003</t>
+  </si>
+  <si>
+    <t>TC-ES-PT-004</t>
+  </si>
+  <si>
+    <t>TC-ES-PT-005</t>
+  </si>
+  <si>
+    <t>TC-ES-PT-006</t>
+  </si>
+  <si>
+    <t>TC-ES-PT-007</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-ES-PT-008</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE VIEW Store_Sales_Report AS
+SELECT 
+    si.store_id AS 매장_ID,
+    s.name AS 매장명,
+    DATE(op.paid_at) AS 결제_일자,
+    DATE_FORMAT(op.paid_at, '%Y-%m') AS 결제_월,
+    YEAR(op.paid_at) AS 결제_연도,
+    SUM(op.amount) AS 총_매출액,
+    COUNT(DISTINCT oo.order_id) AS 총_판매_건수,
+    SUM(CASE WHEN op.pay_method = '카드 결제' THEN op.amount ELSE 0 END) AS 카드_결제_매출,
+    SUM(CASE WHEN op.pay_method = '현금 결제' THEN op.amount ELSE 0 END) AS 현금_결제_매출
+FROM Offline_Payment op
+JOIN Offline_Order oo ON op.order_id = oo.order_id
+JOIN Offline_Cart oc ON oo.offline_cart_id = oc.offline_cart_id
+JOIN Offline_Cart_Product ocp ON oc.offline_cart_id = ocp.offline_cart_id
+JOIN Store_Inventory si ON ocp.inventory_id = si.inventory_id
+JOIN Stores s ON si.store_id = s.store_id
+WHERE op.status = '결제 완료'
+GROUP BY si.store_id, s.name, 결제_일자, 결제_월, 결제_연도;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store_Sales_Report</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장별 일별, 월별, 연도별 매출 보고서를 보기 위해서</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM Store_Sales_Report 
+WHERE 결제_일자 = '2025-03-05' 
+AND 매장_ID = 2;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM Store_Sales_Report 
+WHERE 결제_일자 = '2025-03-05' 
+AND 매장_ID = 999;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 매장의 월별 매출 보고서 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 매장의 연도별 매출 보고서 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM Store_Sales_Report 
+WHERE 결제_월 = '2025-03' 
+AND 매장_ID = 2;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-ES-022</t>
+  </si>
+  <si>
+    <t>TC-ES-023</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Store_Sales_Report 
+WHERE 결제_연도 = '2025'
+AND 매장_ID = 2;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2464,6 +5446,18 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="17">
@@ -2621,7 +5615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2685,16 +5679,7 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2714,6 +5699,21 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -3049,8 +6049,8 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <pane ySplit="7" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3068,10 +6068,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" s="5" t="s">
@@ -3098,13 +6098,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
@@ -4457,7 +7457,7 @@
   <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4507,7 +7507,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4539,7 +7539,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
         <v>90</v>
       </c>
@@ -4703,10 +7703,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C4A51-9690-43BE-9F3A-73533E711DB8}">
-  <dimension ref="A2:K18"/>
+  <dimension ref="A2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4714,7 +7714,7 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="45.375" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
@@ -4735,7 +7735,7 @@
         <v>217</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>153</v>
@@ -4761,7 +7761,7 @@
     </row>
     <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>118</v>
+        <v>326</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>120</v>
@@ -4792,7 +7792,7 @@
     </row>
     <row r="4" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>117</v>
+        <v>327</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>123</v>
@@ -4825,7 +7825,7 @@
     </row>
     <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>138</v>
+        <v>328</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>123</v>
@@ -4858,7 +7858,7 @@
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>139</v>
+        <v>329</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>248</v>
@@ -4888,7 +7888,7 @@
     </row>
     <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>140</v>
+        <v>330</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>253</v>
@@ -4918,7 +7918,7 @@
     </row>
     <row r="8" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>141</v>
+        <v>331</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>254</v>
@@ -4943,21 +7943,21 @@
         <v>258</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>142</v>
+        <v>332</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>255</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>265</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>229</v>
@@ -4975,35 +7975,85 @@
         <v>259</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="18">
+        <v>45727.881423611114</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>144</v>
+        <v>334</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="18">
+        <v>45727.882337962961</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>145</v>
+        <v>335</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F12" s="18">
-        <v>45727.881423611114</v>
+        <v>45727.883425925924</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>230</v>
@@ -5012,7 +8062,7 @@
         <v>58</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>219</v>
@@ -5020,20 +8070,20 @@
     </row>
     <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>233</v>
+        <v>336</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F13" s="18">
-        <v>45727.882337962961</v>
+        <v>45727.884097222224</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>226</v>
@@ -5042,140 +8092,368 @@
         <v>58</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>246</v>
+        <v>337</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="17"/>
+        <v>359</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>354</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F14" s="18">
-        <v>45727.883425925924</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>58</v>
+        <v>45731.636180555557</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>135</v>
+        <v>361</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="17"/>
+        <v>363</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>354</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F15" s="18">
-        <v>45727.884097222224</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>58</v>
+        <v>45731.636180555557</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>146</v>
+        <v>362</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="D16" s="17"/>
+        <v>366</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>354</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F16" s="18">
-        <v>45727.884097222224</v>
+        <v>45731.636180555557</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>147</v>
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="17"/>
+        <v>360</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>354</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F17" s="18">
-        <v>45728.884097222224</v>
+        <v>45731.636180555557</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>150</v>
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="D18" s="17"/>
+        <v>283</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>279</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F18" s="18">
-        <v>45729.884097222224</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+        <v>45731.45884259259</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F19" s="18">
+        <v>45731.473425925928</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20" s="18">
+        <v>45731.47828703704</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F21" s="18">
+        <v>45731.479675925926</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F22" s="18">
+        <v>45731.479675925926</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F23" s="18">
+        <v>45731.479675925926</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" s="18">
+        <v>45732.479675925926</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" s="18">
+        <v>45733.479675925926</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>324</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D9" location="Store_Link!A3" display="TRIGGER" xr:uid="{7B18410A-0236-4DA7-8282-B91D7737CB18}"/>
+    <hyperlink ref="D18" location="Store_Link!A4" display="PROCEDURE" xr:uid="{16C8D663-D369-4920-9B0E-F7EC9DA2809A}"/>
+    <hyperlink ref="D19" location="Store_Link!A5" display="TRIGGER" xr:uid="{617C8A44-4C04-48E5-A0AE-A175A2FD36DB}"/>
+    <hyperlink ref="D20" location="Store_Link!A6" display="TRIGGER" xr:uid="{46C91685-C390-4A89-88FE-A0ED49AECF3D}"/>
+    <hyperlink ref="D21" location="Store_Link!A7" display="TRIGGER" xr:uid="{7E155CD3-8538-4A49-A9E5-F29115749A16}"/>
+    <hyperlink ref="D22" location="Store_Link!A8" display="TRIGGER" xr:uid="{7E11B4D2-1FE9-4456-BFBF-4FEF17829A5B}"/>
+    <hyperlink ref="D23" location="Store_Link!A8" display="TRIGGER" xr:uid="{C327341D-09F6-4BF7-9AC5-5442A7E6668F}"/>
+    <hyperlink ref="D24" location="Store_Link!A9" display="TRIGGER" xr:uid="{9A9D340E-76C4-40B8-BEA9-EB4C4A36941B}"/>
+    <hyperlink ref="D25" location="Store_Link!A9" display="TRIGGER" xr:uid="{4DD2F72C-510A-4C62-B500-DF30B749B6C6}"/>
+    <hyperlink ref="D16" location="Store_Link!A10" display="VIEW" xr:uid="{68E0E441-AAA5-4723-A33B-370AAF54A4C4}"/>
+    <hyperlink ref="D17" location="Store_Link!A10" display="VIEW" xr:uid="{2B0558A4-8E53-4FDC-B3DF-449074562F25}"/>
+    <hyperlink ref="D15" location="Store_Link!A10" display="VIEW" xr:uid="{D0C84309-0EF2-4E26-9BBE-1262369C6935}"/>
+    <hyperlink ref="D14" location="Store_Link!A10" display="VIEW" xr:uid="{235806CD-A9D3-477F-A211-8C6F37DA4C29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5183,10 +8461,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8D7F36-D734-45DA-B4CE-D9CDAB3C3E1C}">
-  <dimension ref="A2:G4"/>
+  <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5202,60 +8480,188 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="402" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" s="21">
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="402" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="C4" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="21">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="F3" s="24">
-        <v>45729</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="24"/>
+      <c r="E5" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="21">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="21">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="313.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>356</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" location="Store!A9" display="TC-EM-PT-001" xr:uid="{551B4970-8E7D-499C-A864-E7C7A59A9C67}"/>
+    <hyperlink ref="A4:A9" location="Store!A9" display="TC-EM-PT-001" xr:uid="{592883B1-0A8E-4FA3-94F3-3BD8C628C386}"/>
+    <hyperlink ref="A9" location="Store!A22" display="TC-ES-PT-007" xr:uid="{438FCAAA-6729-43F3-8BC0-3B99452AB58C}"/>
+    <hyperlink ref="A8" location="Store!A20" display="TC-ES-PT-006" xr:uid="{C58E1D56-9A6A-471E-8CA0-BA59BB2F24C5}"/>
+    <hyperlink ref="A7" location="Store!A19" display="TC-ES-PT-005" xr:uid="{E9741DCC-F14B-4966-9A84-A38FF1605CC9}"/>
+    <hyperlink ref="A6" location="Store!A18" display="TC-ES-PT-004" xr:uid="{B32CC016-71BE-4A95-9AF7-680D413D676A}"/>
+    <hyperlink ref="A5" location="Store!A17" display="TC-ES-PT-003" xr:uid="{259F66F3-E78C-4BC3-8708-309100FDE2F3}"/>
+    <hyperlink ref="A4" location="Store!A16" display="TC-ES-PT-002" xr:uid="{EA5489DC-87A5-4578-A0F4-0F14945BDD91}"/>
+    <hyperlink ref="A10" location="Store!A14" display="TC-ES-PT-008" xr:uid="{00D1E0CD-E7B5-4C30-81F9-E6524675D5D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCase/TestCaseLSY.xlsx
+++ b/TestCase/TestCaseLSY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sodamsodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA97590F-864F-45E0-A386-6DC15183A6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016F8338-36FD-435A-AD92-808EE22FBA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="389">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -5231,36 +5231,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>CREATE VIEW Store_Sales_Report AS
-SELECT 
-    si.store_id AS 매장_ID,
-    s.name AS 매장명,
-    DATE(op.paid_at) AS 결제_일자,
-    DATE_FORMAT(op.paid_at, '%Y-%m') AS 결제_월,
-    YEAR(op.paid_at) AS 결제_연도,
-    SUM(op.amount) AS 총_매출액,
-    COUNT(DISTINCT oo.order_id) AS 총_판매_건수,
-    SUM(CASE WHEN op.pay_method = '카드 결제' THEN op.amount ELSE 0 END) AS 카드_결제_매출,
-    SUM(CASE WHEN op.pay_method = '현금 결제' THEN op.amount ELSE 0 END) AS 현금_결제_매출
-FROM Offline_Payment op
-JOIN Offline_Order oo ON op.order_id = oo.order_id
-JOIN Offline_Cart oc ON oo.offline_cart_id = oc.offline_cart_id
-JOIN Offline_Cart_Product ocp ON oc.offline_cart_id = ocp.offline_cart_id
-JOIN Store_Inventory si ON ocp.inventory_id = si.inventory_id
-JOIN Stores s ON si.store_id = s.store_id
-WHERE op.status = '결제 완료'
-GROUP BY si.store_id, s.name, 결제_일자, 결제_월, 결제_연도;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store_Sales_Report</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>매장별 일별, 월별, 연도별 매출 보고서를 보기 위해서</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>SELECT * FROM Store_Sales_Report 
 WHERE 결제_일자 = '2025-03-05' 
 AND 매장_ID = 2;</t>
@@ -5273,14 +5243,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>특정 매장의 월별 매출 보고서 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 매장의 연도별 매출 보고서 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>SELECT * FROM Store_Sales_Report 
 WHERE 결제_월 = '2025-03' 
 AND 매장_ID = 2;</t>
@@ -5296,6 +5258,151 @@
     <t>SELECT * FROM Store_Sales_Report 
 WHERE 결제_연도 = '2025'
 AND 매장_ID = 2;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-ES-024</t>
+  </si>
+  <si>
+    <t>TC-ES-025</t>
+  </si>
+  <si>
+    <t>TC-ES-026</t>
+  </si>
+  <si>
+    <t>TC-ES-027</t>
+  </si>
+  <si>
+    <t>TC-ES-028</t>
+  </si>
+  <si>
+    <t>TC-ES-029</t>
+  </si>
+  <si>
+    <t>특정 매장의 일별 현금 매출 보고서 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 매장의 일별 카드 매출 보고서 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 매장의 일별 합산 매출 보고서 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 매장의 월별 합산 매출 보고서 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 매장의 연도별 합산 매출 보고서 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM Store_Sales_Report_Cash 
+WHERE `결제일` = '2025-03-17'
+AND `매장 ID` = 3;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 매장의 월별 현금 매출 보고서 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장별 일별, 월별, 연도별 현금 매출 보고서를 보기 위해서</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store_Sales_Report_Cash</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE OR REPLACE VIEW Store_Sales_Report_Cash AS
+SELECT 
+    s.store_id AS '매장 ID',
+    s.name AS '매장 이름',
+    concat('\\ ', FORMAT(SUM(oc.amount), 0)) AS '총 현금 매출',
+    DATE(oc.pay_date) AS '결제일'
+FROM Stores s
+JOIN Store_Inventory si ON s.store_id = si.store_id
+JOIN Offline_Cart_Product ocp ON si.inventory_id = ocp.inventory_id
+JOIN Offline_Order oo ON ocp.offline_cart_id = oo.offline_cart_id
+JOIN offline_cash oc ON oo.order_id = oc.order_id
+WHERE oc.status = 'COMPLETE'
+GROUP BY s.store_id, s.name, DATE(oc.pay_date);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 매장의 연도별 현금 매출 보고서 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT 
+    `매장 ID`,
+    `매장 이름`,
+    CONCAT('\\ ', FORMAT(SUM(CAST(REPLACE(REPLACE(`총 현금 매출`, '\\ ', ''), ',', '') AS UNSIGNED)), 0)) AS '연도별 총 현금 매출',    
+    DATE_FORMAT(`결제일`, '%Y-%m') AS '월'
+FROM Store_Sales_Report_Cash
+WHERE YEAR(`결제일`) = 2024
+AND `매장 ID` = 5
+GROUP BY `매장 ID`, `매장 이름`, DATE_FORMAT(`결제일`, '%Y-%m')
+ORDER BY `월`;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT *
+FROM Store_Sales_Report_Cash
+WHERE DATE_FORMAT(`결제일`, '%Y-%m') = '2024-04'
+AND `매장 ID` = 3
+order by `결제일`;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 매장의 월별 카드 매출 보고서 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 매장의 연도별 카드 매출 보고서 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT *
+FROM Store_Sales_Report_Card
+WHERE DATE_FORMAT(`결제일`, '%Y-%m') = '2024-04'
+AND `매장 ID` = 3
+order by `결제일`;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT 
+    `매장 ID`,
+    `매장 이름`,
+    DATE_FORMAT(`결제일`, '%Y-%m') AS '월',
+    CONCAT('\\ ', FORMAT(SUM(CAST(REPLACE(REPLACE(`총 카드 매출`, '\\ ', ''), ',', '') AS UNSIGNED)), 0)) AS '연도별 총 현금 매출'
+FROM Store_Sales_Report_Card
+WHERE YEAR(`결제일`) = 2024
+AND `매장 ID` = 5
+GROUP BY `매장 ID`, `매장 이름`, DATE_FORMAT(`결제일`, '%Y-%m')
+ORDER BY `월`;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * 
+FROM Store_Sales_Report_Card 
+WHERE `결제일` = '2025-03-14'
+AND `매장 ID` = 3;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.594 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.016 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.157 sec</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5700,6 +5807,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5707,12 +5820,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6068,10 +6175,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" s="5" t="s">
@@ -6098,13 +6205,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
@@ -7507,7 +7614,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -7539,7 +7646,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="2" t="s">
         <v>90</v>
       </c>
@@ -7703,10 +7810,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C4A51-9690-43BE-9F3A-73533E711DB8}">
-  <dimension ref="A2:K25"/>
+  <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8103,10 +8210,10 @@
         <v>337</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>146</v>
+        <v>368</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>354</v>
@@ -8117,20 +8224,26 @@
       <c r="F14" s="18">
         <v>45731.636180555557</v>
       </c>
+      <c r="G14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="I14" s="2" t="s">
         <v>147</v>
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>338</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>354</v>
@@ -8141,20 +8254,26 @@
       <c r="F15" s="18">
         <v>45731.636180555557</v>
       </c>
+      <c r="G15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="I15" s="2" t="s">
         <v>147</v>
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="231" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>339</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>354</v>
@@ -8165,20 +8284,26 @@
       <c r="F16" s="18">
         <v>45731.636180555557</v>
       </c>
+      <c r="G16" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="I16" s="2" t="s">
         <v>147</v>
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>340</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>148</v>
+        <v>369</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>354</v>
@@ -8189,252 +8314,414 @@
       <c r="F17" s="18">
         <v>45731.636180555557</v>
       </c>
+      <c r="G17" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="I17" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>341</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>278</v>
+        <v>381</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>279</v>
+        <v>383</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>354</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F18" s="18">
-        <v>45731.45884259259</v>
+        <v>45731.636180555557</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>58</v>
+        <v>386</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="231" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>287</v>
+        <v>382</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>292</v>
+        <v>384</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F19" s="18">
-        <v>45731.473425925928</v>
+        <v>45731.636180555557</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>58</v>
+        <v>387</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>293</v>
+        <v>370</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F20" s="18">
-        <v>45731.47828703704</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>58</v>
+        <v>45731.636180555557</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>299</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>344</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>300</v>
+        <v>371</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F21" s="18">
-        <v>45731.479675925926</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>58</v>
+        <v>45731.636180555557</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>306</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>345</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F22" s="18">
-        <v>45731.479675925926</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>58</v>
+        <v>45731.636180555557</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>346</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>319</v>
+        <v>148</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F23" s="18">
-        <v>45731.479675925926</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>58</v>
+        <v>45731.636180555557</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>265</v>
+        <v>283</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>279</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F24" s="18">
-        <v>45732.479675925926</v>
+        <v>45731.45884259259</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="D25" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="D25" s="27" t="s">
         <v>265</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F25" s="18">
-        <v>45733.479675925926</v>
+        <v>45731.473425925928</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="18">
+        <v>45731.47828703704</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F27" s="18">
+        <v>45731.479675925926</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="18">
+        <v>45731.479675925926</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" s="18">
+        <v>45731.479675925926</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" s="18">
+        <v>45732.479675925926</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F31" s="18">
+        <v>45733.479675925926</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>324</v>
       </c>
     </row>
@@ -8442,18 +8729,24 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D9" location="Store_Link!A3" display="TRIGGER" xr:uid="{7B18410A-0236-4DA7-8282-B91D7737CB18}"/>
-    <hyperlink ref="D18" location="Store_Link!A4" display="PROCEDURE" xr:uid="{16C8D663-D369-4920-9B0E-F7EC9DA2809A}"/>
-    <hyperlink ref="D19" location="Store_Link!A5" display="TRIGGER" xr:uid="{617C8A44-4C04-48E5-A0AE-A175A2FD36DB}"/>
-    <hyperlink ref="D20" location="Store_Link!A6" display="TRIGGER" xr:uid="{46C91685-C390-4A89-88FE-A0ED49AECF3D}"/>
-    <hyperlink ref="D21" location="Store_Link!A7" display="TRIGGER" xr:uid="{7E155CD3-8538-4A49-A9E5-F29115749A16}"/>
-    <hyperlink ref="D22" location="Store_Link!A8" display="TRIGGER" xr:uid="{7E11B4D2-1FE9-4456-BFBF-4FEF17829A5B}"/>
-    <hyperlink ref="D23" location="Store_Link!A8" display="TRIGGER" xr:uid="{C327341D-09F6-4BF7-9AC5-5442A7E6668F}"/>
-    <hyperlink ref="D24" location="Store_Link!A9" display="TRIGGER" xr:uid="{9A9D340E-76C4-40B8-BEA9-EB4C4A36941B}"/>
-    <hyperlink ref="D25" location="Store_Link!A9" display="TRIGGER" xr:uid="{4DD2F72C-510A-4C62-B500-DF30B749B6C6}"/>
-    <hyperlink ref="D16" location="Store_Link!A10" display="VIEW" xr:uid="{68E0E441-AAA5-4723-A33B-370AAF54A4C4}"/>
-    <hyperlink ref="D17" location="Store_Link!A10" display="VIEW" xr:uid="{2B0558A4-8E53-4FDC-B3DF-449074562F25}"/>
-    <hyperlink ref="D15" location="Store_Link!A10" display="VIEW" xr:uid="{D0C84309-0EF2-4E26-9BBE-1262369C6935}"/>
-    <hyperlink ref="D14" location="Store_Link!A10" display="VIEW" xr:uid="{235806CD-A9D3-477F-A211-8C6F37DA4C29}"/>
+    <hyperlink ref="D24" location="Store_Link!A4" display="PROCEDURE" xr:uid="{16C8D663-D369-4920-9B0E-F7EC9DA2809A}"/>
+    <hyperlink ref="D25" location="Store_Link!A5" display="TRIGGER" xr:uid="{617C8A44-4C04-48E5-A0AE-A175A2FD36DB}"/>
+    <hyperlink ref="D26" location="Store_Link!A6" display="TRIGGER" xr:uid="{46C91685-C390-4A89-88FE-A0ED49AECF3D}"/>
+    <hyperlink ref="D27" location="Store_Link!A7" display="TRIGGER" xr:uid="{7E155CD3-8538-4A49-A9E5-F29115749A16}"/>
+    <hyperlink ref="D28" location="Store_Link!A8" display="TRIGGER" xr:uid="{7E11B4D2-1FE9-4456-BFBF-4FEF17829A5B}"/>
+    <hyperlink ref="D29" location="Store_Link!A8" display="TRIGGER" xr:uid="{C327341D-09F6-4BF7-9AC5-5442A7E6668F}"/>
+    <hyperlink ref="D30" location="Store_Link!A9" display="TRIGGER" xr:uid="{9A9D340E-76C4-40B8-BEA9-EB4C4A36941B}"/>
+    <hyperlink ref="D31" location="Store_Link!A9" display="TRIGGER" xr:uid="{4DD2F72C-510A-4C62-B500-DF30B749B6C6}"/>
+    <hyperlink ref="D22" location="Store_Link!A10" display="VIEW" xr:uid="{68E0E441-AAA5-4723-A33B-370AAF54A4C4}"/>
+    <hyperlink ref="D23" location="Store_Link!A10" display="VIEW" xr:uid="{2B0558A4-8E53-4FDC-B3DF-449074562F25}"/>
+    <hyperlink ref="D21" location="Store_Link!A10" display="VIEW" xr:uid="{D0C84309-0EF2-4E26-9BBE-1262369C6935}"/>
+    <hyperlink ref="D20" location="Store_Link!A10" display="VIEW" xr:uid="{235806CD-A9D3-477F-A211-8C6F37DA4C29}"/>
+    <hyperlink ref="D19" location="Store_Link!A10" display="VIEW" xr:uid="{53BF73E0-1FB7-440F-B43B-97B627B8D42C}"/>
+    <hyperlink ref="D18" location="Store_Link!A10" display="VIEW" xr:uid="{F9E6749E-C081-4BE8-AD96-26ECAB43C128}"/>
+    <hyperlink ref="D17" location="Store_Link!A10" display="VIEW" xr:uid="{C9CA1898-E397-4587-ABD5-C693E62543BB}"/>
+    <hyperlink ref="D16" location="Store_Link!A10" display="VIEW" xr:uid="{91A44EE8-9034-492E-9CB8-5B7B79272E4E}"/>
+    <hyperlink ref="D15" location="Store_Link!A10" display="VIEW" xr:uid="{D2D37785-3A72-44BB-9A04-76D77B337A14}"/>
+    <hyperlink ref="D14" location="Store_Link!A10" display="VIEW" xr:uid="{37933E31-4936-4F59-8323-54CDC3636263}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8633,7 +8926,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>355</v>
       </c>
@@ -8641,13 +8934,13 @@
         <v>354</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/TestCaseLSY.xlsx
+++ b/TestCase/TestCaseLSY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sodamsodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016F8338-36FD-435A-AD92-808EE22FBA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFEEC64-B44E-4904-B3CB-1227316DA316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="401">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -5238,12 +5238,6 @@
   </si>
   <si>
     <t>SELECT * FROM Store_Sales_Report 
-WHERE 결제_일자 = '2025-03-05' 
-AND 매장_ID = 999;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM Store_Sales_Report 
 WHERE 결제_월 = '2025-03' 
 AND 매장_ID = 2;</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -5394,15 +5388,81 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1.594 sec</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.016 sec</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>0.157 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.125 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.703 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.656 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-ES-PT-009</t>
+  </si>
+  <si>
+    <t>Store_Sales_Report_Card</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장별 일별, 월별, 연도별 카드 매출 보고서를 보기 위해서</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE OR REPLACE VIEW Store_Sales_Report_Card AS
+SELECT 
+    s.store_id AS '매장 ID',
+    s.name AS '매장 이름',
+    CONCAT('\\ ', FORMAT(SUM(op.amount), 0)) AS '총 카드 매출',
+    DATE(op.paid_at) AS '결제일'
+FROM Stores s
+JOIN Store_Inventory si ON s.store_id = si.store_id
+JOIN Offline_Cart_Product ocp ON si.inventory_id = ocp.inventory_id
+JOIN Offline_Order oo ON ocp.offline_cart_id = oo.offline_cart_id
+JOIN Offline_Payment op ON oo.order_id = op.order_id
+WHERE op.status = 'paid'
+GROUP BY s.store_id, s.name, DATE(op.paid_at);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.563 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.047 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는 너무 간단한 매출 보고서가 나오기 때문에 포인트 사용 내역, 할인 내역, 검색 날짜 커스텀을 포함하여 다시 만들 예정</t>
+  </si>
+  <si>
+    <t>현재는 너무 간단한 매출 보고서가 나오기 때문에 포인트 사용 내역, 할인 내역, 검색 날짜 커스텀을 포함하여 다시 만들 예정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는 너무 간단한 매출 보고서가 나오기 때문에 포인트 사용 내역, 할인 내역, 검색 날짜 커스텀을 포함하여 다시 만들 예정    + 쿼리 시간이 오래 걸려 INDEX를 사용하여 쿼리 성능 최적화 예정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT *
+FROM Store_Sales_Report_Cash
+WHERE DATE_FORMAT(`결제일`, '%Y-%m') = '2024-04'
+AND `매장 ID` = 999
+order by `결제일`;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.687 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 row(s) affected</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -7812,8 +7872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C4A51-9690-43BE-9F3A-73533E711DB8}">
   <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8210,10 +8270,10 @@
         <v>337</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>354</v>
@@ -8225,7 +8285,7 @@
         <v>45731.636180555557</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>226</v>
+        <v>386</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>58</v>
@@ -8233,17 +8293,19 @@
       <c r="I14" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>338</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>354</v>
@@ -8255,7 +8317,7 @@
         <v>45731.636180555557</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>226</v>
+        <v>387</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>58</v>
@@ -8263,17 +8325,19 @@
       <c r="I15" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="231" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>339</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>378</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>379</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>354</v>
@@ -8285,7 +8349,7 @@
         <v>45731.636180555557</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>226</v>
+        <v>388</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>58</v>
@@ -8293,17 +8357,19 @@
       <c r="I16" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="J16" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>340</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>354</v>
@@ -8312,10 +8378,10 @@
         <v>229</v>
       </c>
       <c r="F17" s="18">
-        <v>45731.636180555557</v>
+        <v>45734.822291666664</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>58</v>
@@ -8323,17 +8389,19 @@
       <c r="I17" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>341</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>354</v>
@@ -8342,10 +8410,10 @@
         <v>229</v>
       </c>
       <c r="F18" s="18">
-        <v>45731.636180555557</v>
+        <v>45734.822291666664</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>59</v>
@@ -8353,17 +8421,19 @@
       <c r="I18" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="231" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>354</v>
@@ -8372,10 +8442,10 @@
         <v>229</v>
       </c>
       <c r="F19" s="18">
-        <v>45731.636180555557</v>
+        <v>45734.822291666664</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>59</v>
@@ -8383,14 +8453,16 @@
       <c r="I19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>356</v>
@@ -8414,10 +8486,10 @@
         <v>344</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>354</v>
@@ -8438,10 +8510,10 @@
         <v>345</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>354</v>
@@ -8457,7 +8529,7 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>346</v>
       </c>
@@ -8465,7 +8537,7 @@
         <v>148</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>354</v>
@@ -8474,16 +8546,24 @@
         <v>229</v>
       </c>
       <c r="F23" s="18">
-        <v>45731.636180555557</v>
+        <v>45734.825069444443</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>278</v>
@@ -8515,7 +8595,7 @@
     </row>
     <row r="25" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>287</v>
@@ -8547,7 +8627,7 @@
     </row>
     <row r="26" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>293</v>
@@ -8579,7 +8659,7 @@
     </row>
     <row r="27" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>300</v>
@@ -8611,7 +8691,7 @@
     </row>
     <row r="28" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>318</v>
@@ -8643,7 +8723,7 @@
     </row>
     <row r="29" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>319</v>
@@ -8675,7 +8755,7 @@
     </row>
     <row r="30" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>322</v>
@@ -8701,7 +8781,7 @@
     </row>
     <row r="31" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>323</v>
@@ -8741,9 +8821,9 @@
     <hyperlink ref="D23" location="Store_Link!A10" display="VIEW" xr:uid="{2B0558A4-8E53-4FDC-B3DF-449074562F25}"/>
     <hyperlink ref="D21" location="Store_Link!A10" display="VIEW" xr:uid="{D0C84309-0EF2-4E26-9BBE-1262369C6935}"/>
     <hyperlink ref="D20" location="Store_Link!A10" display="VIEW" xr:uid="{235806CD-A9D3-477F-A211-8C6F37DA4C29}"/>
-    <hyperlink ref="D19" location="Store_Link!A10" display="VIEW" xr:uid="{53BF73E0-1FB7-440F-B43B-97B627B8D42C}"/>
-    <hyperlink ref="D18" location="Store_Link!A10" display="VIEW" xr:uid="{F9E6749E-C081-4BE8-AD96-26ECAB43C128}"/>
-    <hyperlink ref="D17" location="Store_Link!A10" display="VIEW" xr:uid="{C9CA1898-E397-4587-ABD5-C693E62543BB}"/>
+    <hyperlink ref="D19" location="Store_Link!A11" display="VIEW" xr:uid="{53BF73E0-1FB7-440F-B43B-97B627B8D42C}"/>
+    <hyperlink ref="D18" location="Store_Link!A11" display="VIEW" xr:uid="{F9E6749E-C081-4BE8-AD96-26ECAB43C128}"/>
+    <hyperlink ref="D17" location="Store_Link!A11" display="VIEW" xr:uid="{C9CA1898-E397-4587-ABD5-C693E62543BB}"/>
     <hyperlink ref="D16" location="Store_Link!A10" display="VIEW" xr:uid="{91A44EE8-9034-492E-9CB8-5B7B79272E4E}"/>
     <hyperlink ref="D15" location="Store_Link!A10" display="VIEW" xr:uid="{D2D37785-3A72-44BB-9A04-76D77B337A14}"/>
     <hyperlink ref="D14" location="Store_Link!A10" display="VIEW" xr:uid="{37933E31-4936-4F59-8323-54CDC3636263}"/>
@@ -8754,10 +8834,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8D7F36-D734-45DA-B4CE-D9CDAB3C3E1C}">
-  <dimension ref="A2:G10"/>
+  <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8934,13 +9014,30 @@
         <v>354</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>377</v>
+    </row>
+    <row r="11" spans="1:7" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -8955,6 +9052,7 @@
     <hyperlink ref="A5" location="Store!A17" display="TC-ES-PT-003" xr:uid="{259F66F3-E78C-4BC3-8708-309100FDE2F3}"/>
     <hyperlink ref="A4" location="Store!A16" display="TC-ES-PT-002" xr:uid="{EA5489DC-87A5-4578-A0F4-0F14945BDD91}"/>
     <hyperlink ref="A10" location="Store!A14" display="TC-ES-PT-008" xr:uid="{00D1E0CD-E7B5-4C30-81F9-E6524675D5D1}"/>
+    <hyperlink ref="A11" location="Store!A17" display="TC-ES-PT-009" xr:uid="{FB8DE010-8DE2-47F0-8A16-70A2337BA1A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCase/TestCaseLSY.xlsx
+++ b/TestCase/TestCaseLSY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sodamsodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFEEC64-B44E-4904-B3CB-1227316DA316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3011F980-A4EA-4F60-AE5F-4C14088CB429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="400">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -5130,10 +5130,6 @@
   </si>
   <si>
     <t>결제 취소 시 매장 재고 복구</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.016 sec, 0.015 sec</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -7872,8 +7868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C4A51-9690-43BE-9F3A-73533E711DB8}">
   <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7928,7 +7924,7 @@
     </row>
     <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>120</v>
@@ -7959,7 +7955,7 @@
     </row>
     <row r="4" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>123</v>
@@ -7992,7 +7988,7 @@
     </row>
     <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>123</v>
@@ -8025,7 +8021,7 @@
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>248</v>
@@ -8055,7 +8051,7 @@
     </row>
     <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>253</v>
@@ -8085,7 +8081,7 @@
     </row>
     <row r="8" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>254</v>
@@ -8115,7 +8111,7 @@
     </row>
     <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>255</v>
@@ -8147,7 +8143,7 @@
     </row>
     <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>132</v>
@@ -8177,7 +8173,7 @@
     </row>
     <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>126</v>
@@ -8207,7 +8203,7 @@
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>131</v>
@@ -8237,7 +8233,7 @@
     </row>
     <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>135</v>
@@ -8267,16 +8263,16 @@
     </row>
     <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>229</v>
@@ -8285,7 +8281,7 @@
         <v>45731.636180555557</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>58</v>
@@ -8294,21 +8290,21 @@
         <v>147</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>229</v>
@@ -8317,7 +8313,7 @@
         <v>45731.636180555557</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>58</v>
@@ -8326,21 +8322,21 @@
         <v>147</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="231" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>378</v>
-      </c>
       <c r="D16" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>229</v>
@@ -8349,7 +8345,7 @@
         <v>45731.636180555557</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>58</v>
@@ -8358,21 +8354,21 @@
         <v>147</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>229</v>
@@ -8381,7 +8377,7 @@
         <v>45734.822291666664</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>58</v>
@@ -8390,21 +8386,21 @@
         <v>147</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>229</v>
@@ -8413,7 +8409,7 @@
         <v>45734.822291666664</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>59</v>
@@ -8422,21 +8418,21 @@
         <v>147</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="231" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>229</v>
@@ -8445,7 +8441,7 @@
         <v>45734.822291666664</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>59</v>
@@ -8454,21 +8450,21 @@
         <v>147</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>229</v>
@@ -8483,16 +8479,16 @@
     </row>
     <row r="21" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>229</v>
@@ -8507,16 +8503,16 @@
     </row>
     <row r="22" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>229</v>
@@ -8531,16 +8527,16 @@
     </row>
     <row r="23" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>229</v>
@@ -8549,7 +8545,7 @@
         <v>45734.825069444443</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>59</v>
@@ -8558,12 +8554,12 @@
         <v>150</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>278</v>
@@ -8595,7 +8591,7 @@
     </row>
     <row r="25" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>287</v>
@@ -8627,7 +8623,7 @@
     </row>
     <row r="26" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>293</v>
@@ -8659,7 +8655,7 @@
     </row>
     <row r="27" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>300</v>
@@ -8691,7 +8687,7 @@
     </row>
     <row r="28" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>318</v>
@@ -8723,7 +8719,7 @@
     </row>
     <row r="29" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>319</v>
@@ -8741,7 +8737,7 @@
         <v>45731.479675925926</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>325</v>
+        <v>227</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>58</v>
@@ -8755,7 +8751,7 @@
     </row>
     <row r="30" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>322</v>
@@ -8770,7 +8766,10 @@
         <v>229</v>
       </c>
       <c r="F30" s="18">
-        <v>45732.479675925926</v>
+        <v>45734.327592592592</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>58</v>
@@ -8778,10 +8777,13 @@
       <c r="I30" s="2" t="s">
         <v>317</v>
       </c>
+      <c r="J30" s="2" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>323</v>
@@ -8796,13 +8798,19 @@
         <v>229</v>
       </c>
       <c r="F31" s="18">
-        <v>45733.479675925926</v>
+        <v>45734.327592592592</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>324</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -8836,8 +8844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8D7F36-D734-45DA-B4CE-D9CDAB3C3E1C}">
   <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8877,7 +8885,7 @@
     </row>
     <row r="3" spans="1:7" ht="402" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>265</v>
@@ -8897,7 +8905,7 @@
     </row>
     <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>279</v>
@@ -8917,7 +8925,7 @@
     </row>
     <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>265</v>
@@ -8937,7 +8945,7 @@
     </row>
     <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>265</v>
@@ -8957,7 +8965,7 @@
     </row>
     <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>265</v>
@@ -8971,10 +8979,13 @@
       <c r="E7" s="17" t="s">
         <v>303</v>
       </c>
+      <c r="F7" s="21">
+        <v>45731</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>265</v>
@@ -8991,7 +9002,7 @@
     </row>
     <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>265</v>
@@ -9008,36 +9019,36 @@
     </row>
     <row r="10" spans="1:7" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>375</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="17" t="s">
         <v>391</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -9045,7 +9056,7 @@
   <hyperlinks>
     <hyperlink ref="A3" location="Store!A9" display="TC-EM-PT-001" xr:uid="{551B4970-8E7D-499C-A864-E7C7A59A9C67}"/>
     <hyperlink ref="A4:A9" location="Store!A9" display="TC-EM-PT-001" xr:uid="{592883B1-0A8E-4FA3-94F3-3BD8C628C386}"/>
-    <hyperlink ref="A9" location="Store!A22" display="TC-ES-PT-007" xr:uid="{438FCAAA-6729-43F3-8BC0-3B99452AB58C}"/>
+    <hyperlink ref="A9" location="Store!A30" display="TC-ES-PT-007" xr:uid="{438FCAAA-6729-43F3-8BC0-3B99452AB58C}"/>
     <hyperlink ref="A8" location="Store!A20" display="TC-ES-PT-006" xr:uid="{C58E1D56-9A6A-471E-8CA0-BA59BB2F24C5}"/>
     <hyperlink ref="A7" location="Store!A19" display="TC-ES-PT-005" xr:uid="{E9741DCC-F14B-4966-9A84-A38FF1605CC9}"/>
     <hyperlink ref="A6" location="Store!A18" display="TC-ES-PT-004" xr:uid="{B32CC016-71BE-4A95-9AF7-680D413D676A}"/>

--- a/TestCase/TestCaseLSY.xlsx
+++ b/TestCase/TestCaseLSY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sodamsodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3011F980-A4EA-4F60-AE5F-4C14088CB429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA72F43E-5945-45E3-B83E-4D0A485F6011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="408">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -5188,15 +5188,6 @@
     <t>TC-ES-018</t>
   </si>
   <si>
-    <t>TC-ES-019</t>
-  </si>
-  <si>
-    <t>TC-ES-020</t>
-  </si>
-  <si>
-    <t>TC-ES-021</t>
-  </si>
-  <si>
     <t>TC-ES-PT-001</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -5227,30 +5218,12 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT * FROM Store_Sales_Report 
-WHERE 결제_일자 = '2025-03-05' 
-AND 매장_ID = 2;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM Store_Sales_Report 
-WHERE 결제_월 = '2025-03' 
-AND 매장_ID = 2;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TC-ES-022</t>
   </si>
   <si>
     <t>TC-ES-023</t>
   </si>
   <si>
-    <t>SELECT * FROM Store_Sales_Report 
-WHERE 결제_연도 = '2025'
-AND 매장_ID = 2;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TC-ES-024</t>
   </si>
   <si>
@@ -5274,18 +5247,6 @@
   </si>
   <si>
     <t>특정 매장의 일별 카드 매출 보고서 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 매장의 일별 합산 매출 보고서 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 매장의 월별 합산 매출 보고서 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 매장의 연도별 합산 매출 보고서 조회</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -5460,6 +5421,228 @@
   <si>
     <t>0 row(s) affected</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-ES-PT-010</t>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE sp_store_sales_report(
+    IN p_store_id BIGINT,
+    IN p_search_type VARCHAR(10),
+    IN p_start_date DATE,
+    IN p_end_date DATE,
+    IN p_method_type VARCHAR(10)
+)
+BEGIN
+    DECLARE date_condition TEXT;
+    -- 날짜 조건 설정
+    IF p_search_type = 'day' THEN
+        SET date_condition = CONCAT('DATE(pay_date) = "', p_start_date, '"');
+    ELSEIF p_search_type = 'month' THEN
+        SET date_condition = CONCAT('DATE_FORMAT(pay_date, "%Y-%m") = DATE_FORMAT("', p_start_date, '", "%Y-%m")');
+    ELSEIF p_search_type = 'year' THEN
+        SET date_condition = CONCAT('YEAR(pay_date) = YEAR("', p_start_date, '")');
+    ELSEIF p_search_type = 'custom' THEN
+        SET date_condition = CONCAT('pay_date BETWEEN "', p_start_date, '" AND "', p_end_date, '"');
+    END IF;
+    -- 동적 쿼리 생성
+    SET @query = CONCAT(
+    'SELECT 
+        s.name AS 매장_이름,
+        ',
+        'CASE WHEN "', p_search_type, '" = "year" THEN DATE_FORMAT(pay_date, "%Y-%m") 
+              WHEN "', p_search_type, '" = "month" THEN DATE(pay_date)
+              ELSE DATE(pay_date) END AS 결제일,',
+        'SUM(CASE WHEN method = "card" THEN amount ELSE 0 END) AS 카드_매출,',
+        'SUM(CASE WHEN method = "cash" THEN amount ELSE 0 END) AS 현금_매출,',
+        'SUM(amount) AS 총_매출,',
+        'SUM(point_used) AS 포인트_사용_금액,',
+        'SUM(discount_amount) AS 할인_금액,',
+        'SUM(amount - point_used - discount_amount) AS 순수_매출
+    FROM (
+        SELECT 
+            si.store_id, oc.pay_date, "cash" AS method, oc.amount, p.delta AS point_used, ocp.price - pp.final_price AS discount_amount
+        FROM offline_cash oc
+        JOIN Offline_Order oo ON oc.order_id = oo.order_id
+        JOIN Point p ON oo.point_id = p.point_id
+        JOIN Offline_Cart ocart ON oo.offline_cart_id = ocart.offline_cart_id
+        JOIN Offline_Cart_Product ocp ON ocart.offline_cart_id = ocp.offline_cart_id
+        JOIN Store_Inventory si ON ocp.inventory_id = si.inventory_id
+        JOIN Product_Price pp ON si.product_id = pp.product_id
+        WHERE oc.status = "COMPLETE"
+        UNION ALL
+        SELECT 
+            si.store_id, op.paid_at AS pay_date, "card" AS method, op.amount, p.delta AS point_used, ocp.price - pp.final_price AS discount_amount
+        FROM Offline_Payment op
+        JOIN Offline_Order oo ON op.order_id = oo.order_id
+        JOIN Point p ON oo.point_id = p.point_id
+        JOIN Offline_Cart ocart ON oo.offline_cart_id = ocart.offline_cart_id
+        JOIN Offline_Cart_Product ocp ON ocart.offline_cart_id = ocp.offline_cart_id
+        JOIN Store_Inventory si ON ocp.inventory_id = si.inventory_id
+        JOIN Product_Price pp ON si.product_id = pp.product_id
+        WHERE op.status = "paid"
+    ) AS sales
+    JOIN Stores s ON sales.store_id = s.store_id
+    WHERE sales.store_id = ', p_store_id, '
+    AND ("all" = "', p_method_type, '" 
+         OR ("', p_method_type, '" = "card" AND method = "card")
+         OR ("', p_method_type, '" = "cash" AND method = "cash"))
+    AND ', date_condition, '
+    GROUP BY s.name, 결제일'
+);
+    -- 실행
+    PREPARE stmt FROM @query;
+    EXECUTE stmt;
+    DEALLOCATE PREPARE stmt;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp_store_sales_report</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장별 일별, 월별, 연도별 매출 보고서를 보기 위해서</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-ES-030</t>
+  </si>
+  <si>
+    <t>매장 매출 보고서 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL sp_store_sales_report(3, 'month', '2025-03-01', NULL, 'all');</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.422 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출 데이터가 정상적으로 조회되고 사용자가 원하는 필터대로 조회됨(필터 : 현금 매출, 카드 매출, 조회 날짜 커스텀)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>필터 더 추가 후 쿼리 성능 최적화</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>필터 더 추가 후 쿼리 성능 최적화 INDEX 사용, 프로시저에서 UNION ALL 제거, GROUP BY 축소</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.235 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL sp_store_sales_report(
+    3,                   -- store_id (매장 ID)
+    'day',               -- p_search_type ('day', 'month', 'year', 'custom')
+    '2025-03-01',        -- p_start_date
+    NULL,                -- p_end_date (day 타입은 NULL)
+    'all',               -- p_method_type ('all', 'card', 'cash')
+    '결제일',            -- p_order_by (정렬할 컬럼)
+    'desc'               -- p_order_dir ('asc', 'desc')
+);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE sp_store_sales_report(
+    IN p_store_id BIGINT,
+    IN p_search_type VARCHAR(10),
+    IN p_start_date DATE,
+    IN p_end_date DATE,
+    IN p_method_type VARCHAR(10),
+    IN p_order_by VARCHAR(50),
+    IN p_order_dir VARCHAR(4)
+)
+BEGIN
+    DECLARE date_condition VARCHAR(255);
+    -- 날짜 조건 생성
+    IF p_search_type = 'day' THEN
+        SET date_condition = CONCAT('DATE(formatted_date) = ''', p_start_date, '''');
+    ELSEIF p_search_type = 'month' THEN
+        SET date_condition = CONCAT('DATE_FORMAT(formatted_date, ''%Y-%m'') = DATE_FORMAT(''', p_start_date, ''', ''%Y-%m'')');
+    ELSEIF p_search_type = 'year' THEN
+        SET date_condition = CONCAT('YEAR(formatted_date) = YEAR(''', p_start_date, ''')');
+    ELSEIF p_search_type = 'custom' THEN
+        SET date_condition = CONCAT('DATE(formatted_date) BETWEEN ''', p_start_date, ''' AND ''', p_end_date, '''');
+    END IF;
+    -- 동적 쿼리 생성
+    SET @query = CONCAT(
+        'SELECT 
+            s.name AS 매장_이름,
+            c.formatted_date AS 결제일,
+            SUM(c.card_amount) AS 카드_매출,
+            SUM(c.cash_amount) AS 현금_매출,
+            SUM(c.card_amount + c.cash_amount) AS 총_매출,
+            SUM(c.point_used) AS 포인트_사용_금액,
+            SUM(c.discount_amount) AS 할인_금액,
+            SUM(c.card_amount + c.cash_amount - c.point_used - c.discount_amount) AS 순수_매출
+        FROM Stores s
+        LEFT JOIN (
+            -- 카드 결제 집계
+            SELECT 
+                si.store_id, 
+                CASE WHEN ''', p_search_type, ''' = "year" THEN DATE_FORMAT(op.paid_at, "%Y-%m") ELSE DATE(op.paid_at) END AS formatted_date,
+                SUM(op.amount) AS card_amount,
+                0 AS cash_amount,
+                SUM(p.delta) AS point_used,
+                SUM(ocp.price - pp.final_price) AS discount_amount
+            FROM Offline_Payment op
+            JOIN Offline_Order oo ON op.order_id = oo.order_id
+            JOIN Point p ON oo.point_id = p.point_id
+            JOIN Offline_Cart ocart ON oo.offline_cart_id = ocart.offline_cart_id
+            JOIN Offline_Cart_Product ocp ON ocart.offline_cart_id = ocp.offline_cart_id
+            JOIN Store_Inventory si ON ocp.inventory_id = si.inventory_id
+            JOIN Product_Price pp ON ocp.inventory_id = si.inventory_id
+            WHERE op.status = "paid"
+            GROUP BY si.store_id, formatted_date
+            UNION ALL
+            -- 현금 결제 집계
+            SELECT 
+                si.store_id,
+                CASE WHEN ''', p_search_type, ''' = "year" THEN DATE_FORMAT(oc.pay_date, "%Y-%m") ELSE DATE(oc.pay_date) END AS formatted_date,
+                0 AS card_amount,
+                SUM(oc.amount) AS cash_amount,
+                SUM(p.delta) AS point_used,
+                SUM(ocp.price - pp.final_price) AS discount_amount
+            FROM offline_cash oc
+            JOIN Offline_Order oo ON oc.order_id = oo.order_id
+            JOIN Point p ON oo.point_id = p.point_id
+            JOIN Offline_Cart ocart ON oo.offline_cart_id = ocart.offline_cart_id
+            JOIN Offline_Cart_Product ocp ON ocart.offline_cart_id = ocp.offline_cart_id
+            JOIN Store_Inventory si ON ocp.inventory_id = si.inventory_id
+            JOIN Product_Price pp ON ocp.inventory_id = si.inventory_id
+            WHERE oc.status = "COMPLETE"
+            GROUP BY si.store_id, formatted_date
+        ) c ON s.store_id = c.store_id
+        WHERE s.store_id = ', p_store_id, '
+        AND ', date_condition, '
+        GROUP BY s.name, c.formatted_date
+        ORDER BY ', p_order_by, ' ', p_order_dir
+    );
+    PREPARE stmt FROM @query;
+    EXECUTE stmt;
+    DEALLOCATE PREPARE stmt;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장별 매출 보고서 필터링 추가</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-ES-PT-011</t>
+  </si>
+  <si>
+    <t>4.328 sec / 0.000 sec</t>
   </si>
 </sst>
 </file>
@@ -7868,8 +8051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C4A51-9690-43BE-9F3A-73533E711DB8}">
   <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8261,18 +8444,18 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>336</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>229</v>
@@ -8281,7 +8464,7 @@
         <v>45731.636180555557</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>58</v>
@@ -8290,7 +8473,10 @@
         <v>147</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>394</v>
+        <v>147</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="99" x14ac:dyDescent="0.3">
@@ -8298,13 +8484,13 @@
         <v>337</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>229</v>
@@ -8313,7 +8499,7 @@
         <v>45731.636180555557</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>58</v>
@@ -8322,7 +8508,10 @@
         <v>147</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>394</v>
+        <v>147</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="231" x14ac:dyDescent="0.3">
@@ -8330,13 +8519,13 @@
         <v>338</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>229</v>
@@ -8345,7 +8534,7 @@
         <v>45731.636180555557</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>58</v>
@@ -8354,21 +8543,24 @@
         <v>147</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>339</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>229</v>
@@ -8377,7 +8569,7 @@
         <v>45734.822291666664</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>58</v>
@@ -8386,21 +8578,24 @@
         <v>147</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>340</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>229</v>
@@ -8409,7 +8604,7 @@
         <v>45734.822291666664</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>59</v>
@@ -8418,21 +8613,24 @@
         <v>147</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="231" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="231" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>341</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>229</v>
@@ -8441,7 +8639,7 @@
         <v>45734.822291666664</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>59</v>
@@ -8450,93 +8648,129 @@
         <v>147</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F20" s="18">
-        <v>45731.636180555557</v>
+        <v>45735.822291608798</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="198" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F21" s="18">
-        <v>45731.636180555557</v>
+        <v>45735.856273148151</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="198" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F22" s="18">
-        <v>45731.636180555557</v>
+        <v>45735.859826388885</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>229</v>
@@ -8545,7 +8779,7 @@
         <v>45734.825069444443</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>59</v>
@@ -8554,12 +8788,12 @@
         <v>150</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>278</v>
@@ -8589,9 +8823,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>287</v>
@@ -8621,9 +8855,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>293</v>
@@ -8653,9 +8887,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>300</v>
@@ -8685,9 +8919,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>318</v>
@@ -8717,9 +8951,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="165" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>319</v>
@@ -8749,9 +8983,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>322</v>
@@ -8781,9 +9015,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="165" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>323</v>
@@ -8825,16 +9059,16 @@
     <hyperlink ref="D29" location="Store_Link!A8" display="TRIGGER" xr:uid="{C327341D-09F6-4BF7-9AC5-5442A7E6668F}"/>
     <hyperlink ref="D30" location="Store_Link!A9" display="TRIGGER" xr:uid="{9A9D340E-76C4-40B8-BEA9-EB4C4A36941B}"/>
     <hyperlink ref="D31" location="Store_Link!A9" display="TRIGGER" xr:uid="{4DD2F72C-510A-4C62-B500-DF30B749B6C6}"/>
-    <hyperlink ref="D22" location="Store_Link!A10" display="VIEW" xr:uid="{68E0E441-AAA5-4723-A33B-370AAF54A4C4}"/>
     <hyperlink ref="D23" location="Store_Link!A10" display="VIEW" xr:uid="{2B0558A4-8E53-4FDC-B3DF-449074562F25}"/>
-    <hyperlink ref="D21" location="Store_Link!A10" display="VIEW" xr:uid="{D0C84309-0EF2-4E26-9BBE-1262369C6935}"/>
-    <hyperlink ref="D20" location="Store_Link!A10" display="VIEW" xr:uid="{235806CD-A9D3-477F-A211-8C6F37DA4C29}"/>
     <hyperlink ref="D19" location="Store_Link!A11" display="VIEW" xr:uid="{53BF73E0-1FB7-440F-B43B-97B627B8D42C}"/>
     <hyperlink ref="D18" location="Store_Link!A11" display="VIEW" xr:uid="{F9E6749E-C081-4BE8-AD96-26ECAB43C128}"/>
     <hyperlink ref="D17" location="Store_Link!A11" display="VIEW" xr:uid="{C9CA1898-E397-4587-ABD5-C693E62543BB}"/>
     <hyperlink ref="D16" location="Store_Link!A10" display="VIEW" xr:uid="{91A44EE8-9034-492E-9CB8-5B7B79272E4E}"/>
     <hyperlink ref="D15" location="Store_Link!A10" display="VIEW" xr:uid="{D2D37785-3A72-44BB-9A04-76D77B337A14}"/>
     <hyperlink ref="D14" location="Store_Link!A10" display="VIEW" xr:uid="{37933E31-4936-4F59-8323-54CDC3636263}"/>
+    <hyperlink ref="D22" location="Store_Link!A13" display="PROCEDURE" xr:uid="{4B2AA854-B096-4373-9616-57E9AEEED646}"/>
+    <hyperlink ref="D20" location="Store_Link!A12" display="PROCEDURE" xr:uid="{901BB2D1-A76D-4D0A-9F6C-F870309B796B}"/>
+    <hyperlink ref="D21" location="Store_Link!A13" display="PROCEDURE" xr:uid="{93818CC5-D625-47C4-86C1-750AEA5889D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8842,10 +9076,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8D7F36-D734-45DA-B4CE-D9CDAB3C3E1C}">
-  <dimension ref="A2:G11"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8885,7 +9119,7 @@
     </row>
     <row r="3" spans="1:7" ht="402" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>265</v>
@@ -8905,7 +9139,7 @@
     </row>
     <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>279</v>
@@ -8925,7 +9159,7 @@
     </row>
     <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>265</v>
@@ -8945,7 +9179,7 @@
     </row>
     <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>265</v>
@@ -8965,7 +9199,7 @@
     </row>
     <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>265</v>
@@ -8985,7 +9219,7 @@
     </row>
     <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>265</v>
@@ -9002,7 +9236,7 @@
     </row>
     <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>265</v>
@@ -9019,36 +9253,70 @@
     </row>
     <row r="10" spans="1:7" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E11" s="17" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
         <v>391</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -9064,6 +9332,8 @@
     <hyperlink ref="A4" location="Store!A16" display="TC-ES-PT-002" xr:uid="{EA5489DC-87A5-4578-A0F4-0F14945BDD91}"/>
     <hyperlink ref="A10" location="Store!A14" display="TC-ES-PT-008" xr:uid="{00D1E0CD-E7B5-4C30-81F9-E6524675D5D1}"/>
     <hyperlink ref="A11" location="Store!A17" display="TC-ES-PT-009" xr:uid="{FB8DE010-8DE2-47F0-8A16-70A2337BA1A6}"/>
+    <hyperlink ref="A12" location="Store!A20" display="TC-ES-PT-010" xr:uid="{BCF9CD1A-E894-433D-B577-CCFFB6BB53CF}"/>
+    <hyperlink ref="A13" location="Store!A21" display="TC-ES-PT-011" xr:uid="{D3175CD9-B8CE-4370-909E-52DF5C20EBFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCase/TestCaseLSY.xlsx
+++ b/TestCase/TestCaseLSY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sodamsodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA72F43E-5945-45E3-B83E-4D0A485F6011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BCB7BC-5A05-4973-AF64-62178F5352F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="414">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -5642,7 +5642,92 @@
     <t>TC-ES-PT-011</t>
   </si>
   <si>
-    <t>4.328 sec / 0.000 sec</t>
+    <t>인덱스 적용, UNION ALL 제거, GROUP BY 축소</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-ES-PT-012</t>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE sp_store_sales_report(
+    IN p_store_id BIGINT,
+    IN p_search_type VARCHAR(10),
+    IN p_start_date DATE,
+    IN p_end_date DATE,
+    IN p_method_type VARCHAR(10),
+    IN p_order_by VARCHAR(50),
+    IN p_order_dir VARCHAR(4)
+)
+BEGIN
+    DECLARE date_condition VARCHAR(255);
+    -- 날짜 조건 생성
+    IF p_search_type = 'day' THEN
+        SET date_condition = CONCAT('DATE(pay_date) = ''', p_start_date, '''');
+    ELSEIF p_search_type = 'month' THEN
+        SET date_condition = CONCAT('DATE_FORMAT(pay_date, ''%Y-%m'') = DATE_FORMAT(''', p_start_date, ''', ''%Y-%m'')');
+    ELSEIF p_search_type = 'year' THEN
+        SET date_condition = CONCAT('YEAR(pay_date) = YEAR(''', p_start_date, ''')');
+    ELSEIF p_search_type = 'custom' THEN
+        SET date_condition = CONCAT('DATE(pay_date) BETWEEN ''', p_start_date, ''' AND ''', p_end_date, '''');
+    END IF;
+    -- 동적 쿼리 생성
+    SET @query = CONCAT(
+        'SELECT 
+            s.name AS 매장_이름,
+            CASE WHEN ''', p_search_type, ''' = "year" THEN DATE_FORMAT(pay_date, "%Y-%m") ELSE DATE(pay_date) END AS 결제일,
+            SUM(CASE WHEN op.offline_payment_id IS NOT NULL THEN op.amount ELSE 0 END) AS 카드_매출,
+            SUM(CASE WHEN oc.offline_cash_id IS NOT NULL THEN oc.amount ELSE 0 END) AS 현금_매출,
+            SUM(IFNULL(op.amount, 0) + IFNULL(oc.amount, 0)) AS 총_매출,
+            SUM(p.delta) AS 포인트_사용_금액,
+            SUM(ocp.price - pp.final_price) AS 할인_금액,
+            SUM(IFNULL(op.amount, 0) + IFNULL(oc.amount, 0) - p.delta - (ocp.price - pp.final_price)) AS 순수_매출
+        FROM Stores s
+        LEFT JOIN Store_Inventory si ON s.store_id = si.store_id
+        LEFT JOIN Offline_Cart_Product ocp ON si.inventory_id = ocp.inventory_id
+        LEFT JOIN Offline_Cart ocart ON ocp.offline_cart_id = ocart.offline_cart_id
+        LEFT JOIN Offline_Order oo ON ocart.offline_cart_id = oo.offline_cart_id
+        LEFT JOIN Point p ON oo.point_id = p.point_id
+        LEFT JOIN Product_Price pp ON ocp.inventory_id = si.inventory_id
+        LEFT JOIN Offline_Payment op ON op.order_id = oo.order_id AND op.status = "paid"
+        LEFT JOIN offline_cash oc ON oc.order_id = oo.order_id AND oc.status = "COMPLETE"
+        WHERE s.store_id = ', p_store_id, '
+        AND ', date_condition, '
+        ', CASE WHEN p_method_type = 'card' THEN 'AND op.offline_payment_id IS NOT NULL' 
+                 WHEN p_method_type = 'cash' THEN 'AND oc.offline_cash_id IS NOT NULL' ELSE '' END, '
+        GROUP BY s.name, CASE WHEN ''', p_search_type, ''' = "year" THEN DATE_FORMAT(pay_date, "%Y-%m") ELSE DATE(pay_date) END
+        ORDER BY ', p_order_by, ' ', p_order_dir
+    );
+    PREPARE stmt FROM @query;
+    EXECUTE stmt;
+    DEALLOCATE PREPARE stmt;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL sp_store_sales_report(
+    3,                   -- store_id (매장 ID)
+    'year',               -- p_search_type ('day', 'month', 'year', 'custom')
+    '2025-01-01',        -- p_start_date
+    NULL,                -- p_end_date (day 타입은 NULL)
+    'all',               -- p_method_type ('all', 'card', 'cash')
+    '결제일',            -- p_order_by (정렬할 컬럼)
+    'desc'               -- p_order_dir ('asc', 'desc')
+);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>287.688 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출 데이터 정상 조회 됨 but 연도별 검색 시 너무 많은 시간 소요</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계 테이블 생성 후 이벤트 스케줄러 사용해서 저장 후 기본 select 방식 예정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8051,8 +8136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C4A51-9690-43BE-9F3A-73533E711DB8}">
   <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8654,7 +8739,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>342</v>
       </c>
@@ -8680,10 +8765,10 @@
         <v>59</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>399</v>
+        <v>147</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>399</v>
+        <v>147</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>400</v>
@@ -8732,7 +8817,7 @@
         <v>396</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>279</v>
@@ -8741,22 +8826,22 @@
         <v>229</v>
       </c>
       <c r="F22" s="18">
-        <v>45735.859826388885</v>
+        <v>45735.863206018519</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>59</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>399</v>
+        <v>147</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="99" x14ac:dyDescent="0.3">
@@ -9066,7 +9151,7 @@
     <hyperlink ref="D16" location="Store_Link!A10" display="VIEW" xr:uid="{91A44EE8-9034-492E-9CB8-5B7B79272E4E}"/>
     <hyperlink ref="D15" location="Store_Link!A10" display="VIEW" xr:uid="{D2D37785-3A72-44BB-9A04-76D77B337A14}"/>
     <hyperlink ref="D14" location="Store_Link!A10" display="VIEW" xr:uid="{37933E31-4936-4F59-8323-54CDC3636263}"/>
-    <hyperlink ref="D22" location="Store_Link!A13" display="PROCEDURE" xr:uid="{4B2AA854-B096-4373-9616-57E9AEEED646}"/>
+    <hyperlink ref="D22" location="Store_Link!A14" display="PROCEDURE" xr:uid="{4B2AA854-B096-4373-9616-57E9AEEED646}"/>
     <hyperlink ref="D20" location="Store_Link!A12" display="PROCEDURE" xr:uid="{901BB2D1-A76D-4D0A-9F6C-F870309B796B}"/>
     <hyperlink ref="D21" location="Store_Link!A13" display="PROCEDURE" xr:uid="{93818CC5-D625-47C4-86C1-750AEA5889D4}"/>
   </hyperlinks>
@@ -9076,10 +9161,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8D7F36-D734-45DA-B4CE-D9CDAB3C3E1C}">
-  <dimension ref="A2:G13"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9233,6 +9318,9 @@
       <c r="E8" s="17" t="s">
         <v>307</v>
       </c>
+      <c r="F8" s="21">
+        <v>45731</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
@@ -9250,6 +9338,9 @@
       <c r="E9" s="17" t="s">
         <v>313</v>
       </c>
+      <c r="F9" s="21">
+        <v>45731</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
@@ -9267,6 +9358,9 @@
       <c r="E10" s="17" t="s">
         <v>366</v>
       </c>
+      <c r="F10" s="21">
+        <v>45733</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
@@ -9284,6 +9378,9 @@
       <c r="E11" s="17" t="s">
         <v>382</v>
       </c>
+      <c r="F11" s="21">
+        <v>45733</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
@@ -9301,6 +9398,9 @@
       <c r="E12" s="17" t="s">
         <v>392</v>
       </c>
+      <c r="F12" s="21">
+        <v>45736</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
@@ -9317,6 +9417,29 @@
       </c>
       <c r="E13" s="17" t="s">
         <v>404</v>
+      </c>
+      <c r="F13" s="21">
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="F14" s="21">
+        <v>45736</v>
       </c>
     </row>
   </sheetData>
@@ -9334,6 +9457,7 @@
     <hyperlink ref="A11" location="Store!A17" display="TC-ES-PT-009" xr:uid="{FB8DE010-8DE2-47F0-8A16-70A2337BA1A6}"/>
     <hyperlink ref="A12" location="Store!A20" display="TC-ES-PT-010" xr:uid="{BCF9CD1A-E894-433D-B577-CCFFB6BB53CF}"/>
     <hyperlink ref="A13" location="Store!A21" display="TC-ES-PT-011" xr:uid="{D3175CD9-B8CE-4370-909E-52DF5C20EBFB}"/>
+    <hyperlink ref="A14" location="Store!A22" display="TC-ES-PT-012" xr:uid="{53A85CBA-E5B3-4D77-A594-651ECA8AACEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCase/TestCaseLSY.xlsx
+++ b/TestCase/TestCaseLSY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sodamsodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BCB7BC-5A05-4973-AF64-62178F5352F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4AE524-8D27-4625-9D67-4FB7AB4AD197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="452">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -606,19 +606,11 @@
     <t>TC-EM-010</t>
   </si>
   <si>
-    <t>특정 매장의 일별 매출 보고서 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>매출 데이터가 정상적으로 조회됨</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>존재하지 않는 매장의 매출 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">		SELECT store_id, SUM(total_amount) AS total_sales FROM Payments WHERE store_id = 999;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1060,10 +1052,6 @@
   </si>
   <si>
     <t>UPDATE Employees SET store_id = 2 WHERE employee_id = 3345;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE Employees SET role = '배송 기사' WHERE employee_id = 10 AND warehouse_id IS NOT NULL;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -5727,6 +5715,254 @@
   </si>
   <si>
     <t>통계 테이블 생성 후 이벤트 스케줄러 사용해서 저장 후 기본 select 방식 예정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL sp_get_order_flow_history_keyset(10088, 3, '2025-01-01', '2025-04-05', '2025-03-01 00:00:00', 315600, 50);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.297 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>985,342 row(s) affected Rows matched: 1  Changed: 1  Warnings: 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-ES-031</t>
+  </si>
+  <si>
+    <t>TC-ES-PT-013</t>
+  </si>
+  <si>
+    <t>특정 매장 발주 이력 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-EM-013</t>
+  </si>
+  <si>
+    <t>TC-EM-014</t>
+  </si>
+  <si>
+    <t>TC-EM-015</t>
+  </si>
+  <si>
+    <t>TC-EM-016</t>
+  </si>
+  <si>
+    <t>TC-EM-017</t>
+  </si>
+  <si>
+    <t>TC-EM-018</t>
+  </si>
+  <si>
+    <t>TC-EM-019</t>
+  </si>
+  <si>
+    <t>TC-EM-020</t>
+  </si>
+  <si>
+    <t>TC-EM-021</t>
+  </si>
+  <si>
+    <t>TC-EM-022</t>
+  </si>
+  <si>
+    <t>TC-EM-023</t>
+  </si>
+  <si>
+    <t>TC-EM-024</t>
+  </si>
+  <si>
+    <t>TC-EM-025</t>
+  </si>
+  <si>
+    <t>TC-EM-026</t>
+  </si>
+  <si>
+    <t>TC-EM-027</t>
+  </si>
+  <si>
+    <t>TC-EM-028</t>
+  </si>
+  <si>
+    <t>TC-EM-029</t>
+  </si>
+  <si>
+    <t>TC-EM-030</t>
+  </si>
+  <si>
+    <t>TC-EM-031</t>
+  </si>
+  <si>
+    <t>매장 내 발주 신청</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 매장 발주 이력 잘 조회됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 시간이 오래 걸려 인덱스 및 개선 필요</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE sp_get_order_flow_history_keyset (
+    IN p_employee_id BIGINT,
+    IN p_store_id BIGINT,
+    IN p_start_date DATE,
+    IN p_end_date DATE,
+    IN p_last_changed_at DATETIME,
+    IN p_last_request_id BIGINT,
+    IN p_limit INT
+)
+BEGIN
+    DECLARE v_role VARCHAR(50);
+    DECLARE v_count INT;
+    -- 1. 전체 조회일 경우: 점장만 허용
+    IF p_store_id IS NULL THEN
+        SELECT role INTO v_role
+        FROM Employees
+        WHERE employee_id = p_employee_id;
+        IF v_role != '점장' THEN
+            SIGNAL SQLSTATE '45000' SET MESSAGE_TEXT = '전체 발주 흐름은 점장만 조회할 수 있습니다.';
+        END IF;
+    -- 2. 특정 매장 조회 시: 해당 매장 소속의 점장 또는 발주 담당자인지 확인
+    ELSE
+        SELECT COUNT(*) INTO v_count
+        FROM Employee_Store_Assignments esa
+        JOIN Employees e ON esa.employee_id = e.employee_id
+        WHERE esa.store_id = p_store_id
+          AND e.employee_id = p_employee_id
+          AND e.role IN ('점장', '발주 담당자');
+        IF v_count = 0 THEN
+            SIGNAL SQLSTATE '45000' SET MESSAGE_TEXT = '해당 매장 발주 흐름은 점장 또는 발주 담당자만 조회할 수 있습니다.';
+        END IF;
+    END IF;
+    -- 3. 발주 흐름 조회 (Keyset Pagination)
+    SELECT 
+        sor.request_id AS 요청ID,
+        s.name AS 매장명,
+        e1.name AS 요청자,
+        e2.name AS 승인자,
+        sor.reason AS 발주사유,
+        sor.status AS 최종상태,
+        sor.created_at AS 요청일자,
+        sor.updated_at AS 수정일자,
+        sol.status AS 상태이력,
+        sol.changed_at AS 변경일자
+    FROM store_order_requests sor
+    JOIN store_order_logs sol ON sor.request_id = sol.request_id
+    JOIN stores s ON sor.store_id = s.store_id
+    LEFT JOIN employees e1 ON sor.requested_by = e1.employee_id
+    LEFT JOIN employees e2 ON sor.approved_by = e2.employee_id
+    WHERE sol.changed_at BETWEEN p_start_date AND p_end_date
+      AND (p_store_id IS NULL OR sor.store_id = p_store_id)
+      AND (
+          sol.changed_at &gt; p_last_changed_at
+          OR (sol.changed_at = p_last_changed_at AND sor.request_id &gt; p_last_request_id)
+      )
+    ORDER BY sol.changed_at ASC, sor.request_id ASC
+    LIMIT p_limit;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp_get_order_flow_history_keyset</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 매장의 발주 이력 조회하기 위해</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE sp_get_order_flow_summary (
+    IN p_employee_id BIGINT,
+    IN p_store_id BIGINT,
+    IN p_start_date DATE,
+    IN p_end_date DATE
+)
+BEGIN
+    DECLARE v_role VARCHAR(50);
+    DECLARE v_count INT;
+    -- 1. 전체 매장 조회 권한 확인 (점장만 가능)
+    IF p_store_id IS NULL THEN
+        SELECT role INTO v_role
+        FROM Employees
+        WHERE employee_id = p_employee_id;
+        IF v_role != '점장' THEN
+            SIGNAL SQLSTATE '45000'
+            SET MESSAGE_TEXT = '전체 발주 요약 정보는 점장만 조회할 수 있습니다.';
+        END IF;
+    -- 2. 특정 매장 권한 확인 (점장, 발주 담당자만 가능)
+    ELSE
+        SELECT COUNT(*) INTO v_count
+        FROM Employee_Store_Assignments esa
+        JOIN Employees e ON esa.employee_id = e.employee_id
+        WHERE esa.store_id = p_store_id
+          AND e.employee_id = p_employee_id
+          AND e.role IN ('점장', '발주 담당자');
+        IF v_count = 0 THEN
+            SIGNAL SQLSTATE '45000'
+            SET MESSAGE_TEXT = '해당 매장 발주 요약 정보는 점장 또는 발주 담당자만 조회할 수 있습니다.';
+        END IF;
+    END IF;
+    -- 3. 요약 테이블 조회
+    SELECT 
+        sos.request_id AS 요청ID,
+        s.name AS 매장명,
+        e1.name AS 요청자,
+        e2.name AS 승인자,
+        sos.reason AS 발주사유,
+        sos.status AS 최종상태,
+        sos.created_at AS 요청일자,
+        sos.updated_at AS 수정일자
+    FROM store_order_flow_summary sos
+    JOIN stores s ON sos.store_id = s.store_id
+    LEFT JOIN employees e1 ON sos.requested_by = e1.employee_id
+    LEFT JOIN employees e2 ON sos.approved_by = e2.employee_id
+    WHERE (p_store_id IS NULL OR sos.store_id = p_store_id)
+      AND sos.created_at BETWEEN p_start_date AND p_end_date
+    ORDER BY sos.created_at DESC;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계 테이블 생성 후 특정 매장 발주 이력 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp_get_order_flow_summary</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-ES-PT-014</t>
+  </si>
+  <si>
+    <t>CALL sp_get_order_flow_summary(12, 3, '2025-01-01', '2025-03-31');</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-ES-019</t>
+  </si>
+  <si>
+    <t>TC-ES-020</t>
+  </si>
+  <si>
+    <t>TC-ES-021</t>
+  </si>
+  <si>
+    <t>0.15 sec</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -6477,11 +6713,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+      <pane ySplit="7" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6600,16 +6836,16 @@
         <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" s="1"/>
@@ -6624,16 +6860,16 @@
         <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="1"/>
@@ -6641,23 +6877,23 @@
     </row>
     <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H10" s="2"/>
       <c r="J10" s="1"/>
@@ -6665,23 +6901,23 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H11" s="2"/>
       <c r="J11" s="1"/>
@@ -6689,23 +6925,23 @@
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H12" s="2"/>
       <c r="J12" s="1"/>
@@ -6713,23 +6949,23 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H13" s="2"/>
       <c r="J13" s="1"/>
@@ -6737,23 +6973,23 @@
     </row>
     <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H14" s="2"/>
       <c r="J14" s="1"/>
@@ -6761,23 +6997,23 @@
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H15" s="2"/>
       <c r="J15" s="1"/>
@@ -6785,23 +7021,23 @@
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H16" s="2"/>
       <c r="J16" s="1"/>
@@ -6809,23 +7045,23 @@
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H17" s="2"/>
       <c r="J17" s="1"/>
@@ -6833,23 +7069,23 @@
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H18" s="2"/>
       <c r="J18" s="1"/>
@@ -6857,7 +7093,7 @@
     </row>
     <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
@@ -6866,16 +7102,16 @@
         <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H19" s="1"/>
       <c r="J19" s="1"/>
@@ -6904,13 +7140,13 @@
         <v>49</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>59</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -6937,13 +7173,13 @@
         <v>48</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>58</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K21" s="1"/>
     </row>
@@ -6964,19 +7200,19 @@
         <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>58</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K22" s="1"/>
     </row>
@@ -7003,13 +7239,13 @@
         <v>66</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>58</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K23" s="1"/>
     </row>
@@ -7036,13 +7272,13 @@
         <v>67</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>58</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -7323,7 +7559,15 @@
       <c r="G36" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="66" x14ac:dyDescent="0.3">
@@ -7346,27 +7590,44 @@
       <c r="G37" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J37" s="1"/>
+      <c r="H37" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>256</v>
+        <v>129</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -7374,19 +7635,28 @@
         <v>139</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -7394,42 +7664,60 @@
         <v>140</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>142</v>
       </c>
@@ -7437,19 +7725,28 @@
         <v>10</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>125</v>
+        <v>270</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>130</v>
+        <v>257</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -7463,19 +7760,28 @@
         <v>31</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>144</v>
       </c>
@@ -7483,19 +7789,28 @@
         <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -7509,42 +7824,62 @@
         <v>32</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F46" s="17"/>
+      <c r="F46" s="17" t="s">
+        <v>136</v>
+      </c>
       <c r="G46" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>10</v>
@@ -7553,169 +7888,748 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>148</v>
+        <v>357</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="231" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>418</v>
+      </c>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>419</v>
+      </c>
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>420</v>
+      </c>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="231" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>421</v>
+      </c>
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>57</v>
+        <v>33</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="198" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>57</v>
+        <v>33</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="198" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>162</v>
+        <v>393</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>163</v>
+        <v>407</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F56" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="9"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="9"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="9"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="9"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="B73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:N7" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}"/>
@@ -7763,7 +8677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7259E29-CB5E-4A5C-B0A7-CEF0D44896B8}">
   <dimension ref="A2:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -7783,34 +8697,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -7824,13 +8738,13 @@
         <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>59</v>
@@ -7839,10 +8753,10 @@
         <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -7856,13 +8770,13 @@
         <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>58</v>
@@ -7871,10 +8785,10 @@
         <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -7888,7 +8802,7 @@
   <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7907,34 +8821,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -7948,13 +8862,13 @@
         <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>59</v>
@@ -7963,10 +8877,10 @@
         <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -7978,13 +8892,13 @@
         <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>58</v>
@@ -7993,10 +8907,10 @@
         <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -8010,13 +8924,13 @@
         <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E5" s="18">
         <v>45727.906504629631</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>58</v>
@@ -8025,7 +8939,7 @@
         <v>48</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -8036,16 +8950,16 @@
         <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E6" s="18">
         <v>45727.901932870373</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>58</v>
@@ -8054,12 +8968,12 @@
         <v>51</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>64</v>
@@ -8068,13 +8982,13 @@
         <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E7" s="18">
         <v>45727.907893518517</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>58</v>
@@ -8083,12 +8997,12 @@
         <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>93</v>
@@ -8097,22 +9011,22 @@
         <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E8" s="18">
         <v>45727.910671296297</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>58</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -8134,10 +9048,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C4A51-9690-43BE-9F3A-73533E711DB8}">
-  <dimension ref="A2:K31"/>
+  <dimension ref="A2:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8157,42 +9071,42 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>120</v>
@@ -8202,13 +9116,13 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F3" s="18">
         <v>45727.870196759257</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>58</v>
@@ -8217,13 +9131,13 @@
         <v>122</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>123</v>
@@ -8233,13 +9147,13 @@
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F4" s="18">
         <v>45727.879166666666</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>59</v>
@@ -8248,31 +9162,31 @@
         <v>129</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F5" s="18">
         <v>45727.884097222224</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>58</v>
@@ -8281,137 +9195,137 @@
         <v>129</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F6" s="18">
         <v>45728.837905092594</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F7" s="18">
         <v>45728.839467592596</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F8" s="18">
         <v>45728.839953703704</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F9" s="18">
         <v>45729.785509259258</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>132</v>
@@ -8421,13 +9335,13 @@
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F10" s="18">
         <v>45727.881423611114</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>58</v>
@@ -8436,12 +9350,12 @@
         <v>130</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>126</v>
@@ -8451,13 +9365,13 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F11" s="18">
         <v>45727.882337962961</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>58</v>
@@ -8466,12 +9380,12 @@
         <v>128</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>131</v>
@@ -8481,13 +9395,13 @@
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F12" s="18">
         <v>45727.883425925924</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>58</v>
@@ -8496,12 +9410,12 @@
         <v>134</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>135</v>
@@ -8511,13 +9425,13 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F13" s="18">
         <v>45727.884097222224</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>58</v>
@@ -8526,610 +9440,677 @@
         <v>137</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F14" s="18">
         <v>45731.636180555557</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F15" s="18">
         <v>45731.636180555557</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="231" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F16" s="18">
         <v>45731.636180555557</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F17" s="18">
         <v>45734.822291666664</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F18" s="18">
         <v>45734.822291666664</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>59</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="231" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F19" s="18">
         <v>45734.822291666664</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>59</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F20" s="18">
         <v>45735.822291608798</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>59</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="198" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>342</v>
+        <v>448</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F21" s="18">
         <v>45735.856273148151</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>59</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="198" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>342</v>
+        <v>449</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F22" s="18">
         <v>45735.863206018519</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>59</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>352</v>
+        <v>450</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F23" s="18">
         <v>45734.825069444443</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>59</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F24" s="18">
         <v>45731.45884259259</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F25" s="18">
         <v>45731.473425925928</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F26" s="18">
         <v>45731.47828703704</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F27" s="18">
         <v>45731.479675925926</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F28" s="18">
         <v>45731.479675925926</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="165" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F29" s="18">
         <v>45731.479675925926</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F30" s="18">
         <v>45734.327592592592</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="165" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F31" s="18">
         <v>45734.327592592592</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="18">
+        <v>45754.520833333336</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F33" s="18">
+        <v>45754.729166666664</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -9154,6 +10135,8 @@
     <hyperlink ref="D22" location="Store_Link!A14" display="PROCEDURE" xr:uid="{4B2AA854-B096-4373-9616-57E9AEEED646}"/>
     <hyperlink ref="D20" location="Store_Link!A12" display="PROCEDURE" xr:uid="{901BB2D1-A76D-4D0A-9F6C-F870309B796B}"/>
     <hyperlink ref="D21" location="Store_Link!A13" display="PROCEDURE" xr:uid="{93818CC5-D625-47C4-86C1-750AEA5889D4}"/>
+    <hyperlink ref="D32" location="Store_Link!A15" display="PROCEDURE" xr:uid="{E85718C1-CC7B-4ACF-B204-DA53C26F53E8}"/>
+    <hyperlink ref="D33" location="Store_Link!A16" display="PROCEDURE" xr:uid="{B22D69E4-418E-4BD5-89FD-09ADE4F895D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9161,10 +10144,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8D7F36-D734-45DA-B4CE-D9CDAB3C3E1C}">
-  <dimension ref="A2:G14"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9181,42 +10164,42 @@
   <sheetData>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="402" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F3" s="21">
         <v>45729</v>
@@ -9224,19 +10207,19 @@
     </row>
     <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B4" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>279</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>282</v>
       </c>
       <c r="F4" s="21">
         <v>45731</v>
@@ -9244,19 +10227,19 @@
     </row>
     <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F5" s="21">
         <v>45731</v>
@@ -9264,19 +10247,19 @@
     </row>
     <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F6" s="21">
         <v>45731</v>
@@ -9284,19 +10267,19 @@
     </row>
     <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F7" s="21">
         <v>45731</v>
@@ -9304,19 +10287,19 @@
     </row>
     <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F8" s="21">
         <v>45731</v>
@@ -9324,19 +10307,19 @@
     </row>
     <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F9" s="21">
         <v>45731</v>
@@ -9344,19 +10327,19 @@
     </row>
     <row r="10" spans="1:7" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F10" s="21">
         <v>45733</v>
@@ -9364,19 +10347,19 @@
     </row>
     <row r="11" spans="1:7" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>379</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>382</v>
       </c>
       <c r="F11" s="21">
         <v>45733</v>
@@ -9384,19 +10367,19 @@
     </row>
     <row r="12" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="E12" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F12" s="21">
         <v>45736</v>
@@ -9404,19 +10387,19 @@
     </row>
     <row r="13" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F13" s="21">
         <v>45736</v>
@@ -9424,22 +10407,59 @@
     </row>
     <row r="14" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F14" s="21">
         <v>45736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="F15" s="21">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -9458,6 +10478,8 @@
     <hyperlink ref="A12" location="Store!A20" display="TC-ES-PT-010" xr:uid="{BCF9CD1A-E894-433D-B577-CCFFB6BB53CF}"/>
     <hyperlink ref="A13" location="Store!A21" display="TC-ES-PT-011" xr:uid="{D3175CD9-B8CE-4370-909E-52DF5C20EBFB}"/>
     <hyperlink ref="A14" location="Store!A22" display="TC-ES-PT-012" xr:uid="{53A85CBA-E5B3-4D77-A594-651ECA8AACEB}"/>
+    <hyperlink ref="A15" location="Store!A32" display="TC-ES-PT-013" xr:uid="{223D2E06-12B7-4796-9F07-F2055B16579D}"/>
+    <hyperlink ref="A16" location="Store!A32" display="TC-ES-PT-013" xr:uid="{13AF899D-ED2D-4FA5-B23F-1DA2CD637512}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9487,34 +10509,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -9528,13 +10550,13 @@
         <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>59</v>
@@ -9543,10 +10565,10 @@
         <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -9560,13 +10582,13 @@
         <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>58</v>
@@ -9575,15 +10597,15 @@
         <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -9616,34 +10638,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -9657,13 +10679,13 @@
         <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>59</v>
@@ -9672,10 +10694,10 @@
         <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -9689,13 +10711,13 @@
         <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>58</v>
@@ -9704,15 +10726,15 @@
         <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
